--- a/Physiopathologie/Excel/cardiaque.xlsx
+++ b/Physiopathologie/Excel/cardiaque.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Physiopathologie\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF3429C9-C41D-43C4-BB0C-1C23005206AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3D2198-8988-4381-8090-CA58537FB7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="11">
   <si>
     <t>Numero</t>
   </si>
@@ -58,12 +58,24 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t xml:space="preserve">13. Concernant l'activité électrique du cœur: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dans les dérivations précordiales, l'augmentation progressive de l'onde R de V1 à V6 reflète l'augmentation progressive de l'épaisseur du myocarde sous l'électrode.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le nœud auriculo-ventriculaire est principalement innervé par le nerf vague droit.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la fréquence cardiaque devient trop élevée, le débit cardiaque devient limité par la réduction de la diastole.    </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,16 +83,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -88,12 +114,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +476,7 @@
   <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,17 +507,17 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -482,17 +527,17 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -502,17 +547,17 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -522,7 +567,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">

--- a/Physiopathologie/Excel/cardiaque.xlsx
+++ b/Physiopathologie/Excel/cardiaque.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Physiopathologie\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3D2198-8988-4381-8090-CA58537FB7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2413F58D-FC8C-49A1-8A63-566636C6453D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="372">
   <si>
     <t>Numero</t>
   </si>
@@ -69,6 +69,1089 @@
   </si>
   <si>
     <t xml:space="preserve"> Lorsque la fréquence cardiaque devient trop élevée, le débit cardiaque devient limité par la réduction de la diastole.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soit une sphère dont l'épaisseur de la paroi est négligeable. Lorsque le rayon de la sphère = 4 cm et la pression transmurale = 8 dyne.cm”, la tension qui s'exerce au niveau de la paroi est de 16 dyne.cm"  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le réseau résistif du système circulatoire est formé par l'aorte et les gros vaisseaux artériels. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selon la loi de Laplace, la tension qui s'exerce au niveau de la paroi d’une structure creuse est inversement proportionnelle à la pression qui y règne et à son rayon.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les propriétés de la fibre musculaire cardiaque isolée peuvent être transposées au ventricule, ainsi, la tension exercée par la fibre (g) correspond à la pression intraventriculaire (mm Hg).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La noradrénaline augmente la contractilité en déplaçant la relation force-vitesse vers le haut et la droite, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les veines ont une compliance élevée et sont des vaisseaux capacitifs.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le retour veineux est le débit de sang provenant du compartiment veineux périphérique et qui entre dans le compartiment veineux central.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression artérielle pulsée est inversement proportionnelle à la compliance de l'aorte. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la pression artérielle sytolique = 120 mm Hg et la pression artérielle diastolique = 90 mm Hg, la pression moyenne calculée est de 100 mm Hg.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La diminution de la pression pulsée du sujet âgé s'explique par la diminution de la compliance aortique.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pour une fréquence cardiaque de 75 battements/min, le cycle cardiaque a une durée de 800 msec. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La contractilité n’influence pas le volume d’éjection systolique. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le débit cardiaque est inversement proportionnel à la fréquence cardiaque.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le nœud sinusal est principalement innervé par le nerf vague gauche. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'enregistrement de l'ECG comporte 12 dérivations: 3 bipolaires et 9 unipolaires. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La repolarisation auriculaire n'est pas visible sur l'ECG en raison de sa faible amplitude qui est masquée  par le complexe QRS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vitesse du courant sanguin augmente lorsque la surface de section des vaisseaux augmente.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque l'écoulement est laminaire, la loi de Poiseuille indique que, le débit est proportionnel à la longueur du tube et inversement proportionnel à la 4° puissance du rayon du tube.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La paroi des artères contient une quantité importante de fibres élastiques qui leur confèrent une forte  compliance et une faible élastance.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">. La vitesse du courant sanguin est la plus faible au niveau du réseau capillaire où la surface de section est la plus faible.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d’un exercice physique, la pression pulsée augmente mais la pression artérielle moyenne reste relativement stable.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La compliance élevée des veines périphérique (+50 fois supérieure à la compliance des artères) explique que le réseau veineux périphérique est un réseau capacitif qui contient +65-70% du sang. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les déterminants du débit cardiaque sont la fréquence cardiaque et le VES (le VES étant fonction de la précharge, de la contractilité et de la postcharge).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La fréquence de décharge des barorécepteurs du système vasculaire à haute pression diminue lorsque la pression artérielle moyenne diminue.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la fréquence cardiaque augmente, la durée de la systole est plus fortement réduite que la durée de la diastole,  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la pression veineuse augmente, la forme des veines devient de plus en plus circulaire et la compliance veineuse diminue.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pompe respiratoire augmente le retour le veineux lors de l'expiration.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le réseau capacitif du système circulatoire est formé par les veinules et veines contenant +65% du volume  sanguin. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'onde de pression progresse +10 à 20 fois plus vite que le sang. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression artérielle pulsée est la différence entre la pression systolique et la pression diastolique. Elle est  &gt; 60 mmHg chez l'adulte jeune. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La repolarisation des oreillettes n’est pas visible sur l'ECG, étant masquée par le complexe QRS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comme au niveau des oreillettes, la repolarisation ventriculaire progresse de l’épicarde vers l'endocarde. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'axe normal du cœur se situe entre -30° et +90°  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La noradrénaline augmente la contractilité en déplaçant la relation force-vitesse vers le haut et la droite.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le volume télédiastolique (VTD) est le volume du ventricule en fin de remplissage, estimé par la formule: VTD = VES + VTS, Sa valeur normale au repos est de + 130 ml par minute  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La FEV permet d'estimer la contractilité du myocarde par la formule: FEV = (VES/VTD) x 100. Dans les  conditions normales, sa valeur est de +70% </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le 2ème bruit du cœur est lié à la fermeture des valves auriculo-ventriculaire G et D. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au repos, lorsque la fréquence cardiaque est de 75 battements par minute, la diastole occupe 2/3 du cycle cardiaque et dure environ 500 msec tandis que la systole occupe 1/3 du cycle et dure environ 300 msec  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La loi de Frank-Starling est une propriété intrinsèque du myocarde qui ajuste le VES au retour veineux. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Concernant le réseau vasculaire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les différentes circulations destinées aux organes sont disposées en parallèle.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La circulation pulmonaire est une circulation à basse pression et à haute résistance.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le réseau capacitif qui contient +95% du volume sanguin est formé par les veines et les veinules.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dans les dérivations précordiales, l'amplitude de l'onde R en regard de chaque électrode est corrélée à l'épaisseur du myocarde viable sous l’électrode.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'ECG permet de suivre l'activité électrique cardiaque au cours du temps, de manière directe et globale.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La taille d'un infarctus du myocarde dépend uniquement de la localisation de l’occlusion artérielle. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le système parasympathique innerve le nœud sinusal (surtout via le nerf vague D) et le nœud auriculo- ventriculaire (surtout via le nerf vague G).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'élastance est l'inverse de la compliance et représente la variation de pression induite par une variation de  volume. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chez l'adulte jeune en bonne santé, la pression artérielle systolique se situe entre 90 et 120 mmHg et la pression artérielle diastolique se situe entre 60 et 80 mmHg  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le baroréflexe artériel est une boucle de rétrocontrôle négatif qui assure la régulation immédiate de la  pression artérielle moyenne. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'ECG normal montre une onde T positive qui s'explique par la repolarisation ventriculaire qui progresse de l'épicarde vers l'endocarde.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chez l'individu normal au repos, le tonus orthosympathique est prépondérant et détermine la fréquence cardiaque.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'intervalle PR de l'ECG comprend la dépolarisation auriculaire et la conduction au niveau du nœud auriculo-ventriculaire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors de la systole, le ventricule ne se vide pas totalement et dans les conditions normales, le volume télésystolique est de l'ordre de 100 ml.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le débit cardiaque est le produit du volume d'éjection systolique et de la fréquence cardiaque.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La précharge est assimilée au volume télédiastolique du ventricule qui représente le remplissage  ventriculaire et qui dépend essentiellement du retour veineux. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La noradrénaline augmente la contractilité du myocarde en déplaçant la courbe de tension isométrique maximale vers le haut et la droite.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La tension active développée par le muscle papillaire cardiaque est indépendante de sa longueur de repos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'augmentation de la contractilité myocardique augmente le volume d'éjection systolique à tout niveau  donné de précharge et de postcharge. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">28. Concernant l'activité électrique du cœur:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le complexe QRS est positif en a VF et égal à 0 en D_L l'axe du cœur est à +90°    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La dépolarisation auriculaire et ventriculaire progresse de l’endocarde vers l’épicarde,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'intervalle QT s'étend du début du complexe QRS à la fin de l'onde T et sa durée est indépendante du rythme cardiaque.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La phase de remplissage et la phase de relaxation isovolumétrique constituent la diastole.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La contractilité représente la force de contraction des fibres musculaires indépendamment de la précharge et  de la postcharge.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La régulation hétérométrique est l'adaptation du volume d'éjection systolique en fonction de la longueur des  fibres musculaires càd en fonction du volume télédiastolique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11. Concernant le compartiment veineux: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le retour veineux augmente lorsque la pression veineuse centrale diminue.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le compartiment veineux central est situé entre le compartiment veineux périphérique et le ventricule  gauche.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La compliance du compartiment veineux central est élevée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. Concernant la pression artérielle: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La mesure de la pression moyenne (PA,,,) n'est pas réalisée en routine et peut être estimée par la relation: PAwoy — PA; Lu 1/3(PAsys: - PAuinst)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression pulsée diminue avec l'âge.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le baroréflexe artériel est une boucle de rétrocontrôle négatif qui assure la régulation immédiate de la pression artérielle systolique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. Concernant les propriétés du système cardiovasculaire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vitesse (v) du sang varie selon la relation: v = S/Q où Q est le débit sanguin et S est la surface de section du vaisseau.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La compliance, en em°.mmHg” , est un index de distension de la paroi du vaisseau et représente la variation  de volume du vaisseau induite par une variation de pression transmurale qui s’y applique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la loi de Laplace s'applique au ventricule, l'augmentation d'épaisseur de la paroi ventriculaire augmente la contrainte &amp; qui s'exerce au niveau de la paroi et qui s'exprime en dynes.cm*    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Concernant l'activité électrique du cœur: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'activité pacemaker des cellules sinusales signifie que leur potentiel de repos fluctue spontanément ou de manière périodique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le potentiel d'action des cellules sinusales ne comporte pas de phase 0 et de phase plateau.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vitesse de conduction est accélérée au niveau du nœud auriculo-ventriculaire où elle est de 0,05 m/sec.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17. Concernant l'hydratation du LEC: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selon la cause, les états d’hyperhydratation du LEC peuvent s'accompagner d'hypertension artérielle ou d'hypotension artérielle.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une déshydratation du LEC, l'osmolalité plasmatique et la natrémie sont normales sauf si il existe un  trouble associé de la balance de l'eau.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pour une fréquence cardiaque de 75 battements/mun, le cycle cardiaque a une durée de 800 msec   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La loi de Frank-Starling est une propriété intrinsèque du myocarde qui ajuste le volume d’éjection systolique  au retour veineux.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sur la courbe PV_A  la systole est la phase d'éjection ventriculaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12. Concernant le système circulatoire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selon la loi de Laplace, la tension qui s'exerce au niveau de la paroi d’une structure creuse est inversement proportionnelle à l'épaisseur de la paroi.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsqu'un système vasculaire est formé de plusieurs éléments disposés en série, le débit est nécessairement  identique au niveau de chaque élément.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le nombre de Reynolds est &gt; 2000, l'écoulement est laminaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une diminution de la postcharge diminue le volume télésystolique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La fraction d’éjection ventriculaire qui permet d'estimer la contractilité se situe normalement entre 55 et 75%    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la contractilité de la fibre musculaire cardiaque augmente, la relation force vitesse est déplacée vers le haut et la gauche,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Concernant l'activité électrique du coeur:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La dérivation DI est une dérivation bipolaire qui mesure la différence de potentiel entre le bras D et le bras G.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le complexe QRS est négatif en aVF et positif en aVL, l'axe du cœur se situe entre 0 et +30°    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La durée normale de l'intervalle PR se situe entre 0,12 et 0,2 sec et est en moyenne de 0,16 sec    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">31. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le 2e bruit du cœur est lié à l'ouverture des valves aortique et pulmonaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le volume d'éjection systolique dépend de la précharge, de la postcharge et de la contractilité.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le volume télésystolique est le volume de sang résiduel au niveau du ventricule après la systole: 1l est de l'ordre de 50 ml dans les conditions normales.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lorsque l'écoulement est laminaire, le débit est multiplié par 8 lorsque le rayon est multiplié par 2. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la vitesse du courant sanguin est la plus élevée au niveau du réseau artériel (+0,5m/s) où la surface de section est plus basse.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la compliance s'exprime en em°/mmHg. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">29. Concernant l'activité électrique cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le prépotentiel peut être défini comme une dépolarisation progressive qui n'atteint jamais le seuil de dépolarisation.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le système parasympathique exerce son effet dromotrope négatif en hyperpolarisant les cellules de la région  N du nœud auriculo-ventriculaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les cellules myocardiques ventriculaires qui sont les dernières à se dépolariser ont un potentiel d'action plus court, ce qui explique leur repolarisation précoce et l'onde T positive à l'ECG.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25. Concernant le système circulatoire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La circulation pulmonaire et la circulation systémique sont disposées en parallèle.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le débit sanguin est inversement proportionnel à la 4° puissance du rayon du tube selon la loi de Poiseuille-  Hagen.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les artères et les veines ont une innervation orthosympathique de type &amp;,-adrénergique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">23. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La précharge est la contrainte &amp; (définie selon Laplace) qui s'exerce sur la paroi du ventricule en fin de diastole.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La noradrénaline augmente la contractilité de la fibre musculaire cardiaque en déplaçant la courbe de tension  isométrique maximale vers le haut et la gauche.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si le débit cardiaque est de 6,4 litres par minute et la fréquence cardiaque est de 80 battements par minute, le VES est de 80 ml par minute.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">21. Concernant la pression artérielle: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression pulsée augmente lorsque le volume d'éjection systolique augmente.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les barorécepteurs du système vasculaire à haute pression ont une activité permanente ou tonique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la pression artérielle systolique = 120 mm Hg et la pression artérielle diastolique = 90 mm Hg, la pression artérielle moyenne calculée est de 105 mm Hg.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20. Concernant le système veineux: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le retour veineux est le débit de sang provenant du compartiment veineux périphérique et qui entre dans le compartiment veineux central, selon la relation: Q = (PVP — PVCYR   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression veineuse centrale augmente lorsque la compliance veineuse augmente.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La compliance des veines périphérique et des veines centrales est +50 fois supérieure à la compliance des artères.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1. Concernant l'activité électrique cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La phase 0 du potentiel d'action des cellules sinusales est hée à l'activation transitoire du canal Na, rapide.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La période réfractaire absolue au niveau du cardiomyocyte a une durée longue et équivalente à celle de la contraction musculaire, ce qui évite le tétanos cardiaque.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le système orthosympathique accélère le rythme cardiaque en augmentant la pente de la phase 4 du potentiel d'action des cellules sinusales.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le compartiment veineux périphérique a un large volume, une compliance élevée et une résistance faible.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la courbe de fonction veineuse relie la pression veineuse centrale au retour veineux.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lors d’une transfusion, le croisement des courbes de fonction cardiaque et veineuse est déplacé vers le haut et la droite.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la régulation de la pression artérielle à court terme est assurée essentiellement par l'activité des barorécepteurs du système vasculaire à haute pression. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dans la situation normale, la pression veineuse centrale se situe entre 0 et 2 mmHg.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chez l'adulte jeune, la pression artérielle pulsée est &gt; 60 mm Hg.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la postcharge est d'autant plus importante que l’élastance du réseau artériel est basse. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l'index cardiaque exprime le débit cardiaque en fonction de la surface corporelle. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la fréquence cardiaque maximale d’un sujet de 40 ans est de 200 battements/min.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la contractilité représente la force de contraction des fibres musculaires et dépend de la précharge et de la postcharge  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la précharge est assimilée au volume télédiastolique du ventricule et dépend essentiellement du retour VEINEUXx.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> l'effet inotrope de Sarnoff indique, qu'à un volume télédiastolique donné, le volume d’éjection systolique augmente lorsque la contractilité augmente.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> au repos, la diastole occupe 2/3 du cycle cardiaque, soit +500 msec.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la noradrénaline augmente la contractilité en déplaçant la courbe de tension isométrique maximale vers le bas et la droite.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la durée d’un cycle cardiaque est l'inverse de la fréquence cardiaque. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le système hormonal est le principal régulateur de l’activité pacemaker cardiaque. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> le complexe QRS de l'ECG représente la dépolarisation ventriculaire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chez l'individu normal au repos, le tonus orthosympathique est prépondérant et son niveau d'activité  détermine la fréquence cardiaque. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q26. Concernant le système veineux:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression veineuse centrale diminue en position allongée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le retour veineux augmente lors de l'expiration.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la pression veineuse augmente, la forme des veines devient de plus en plus circulaire et la compliance  veincuse augmente.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q25. Concernant les propriétés du muscle cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La tension active développée par le muscle papillaire cardiaque isolé dépend de sa longueur de repos.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la contractilité augmente, V_A ,,, augmente de même que la tension isométrique maximale à une longueur donnée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une variation de la contractilité n'implique pas toujours un déplacement de la courbe de tension isométrique maximale.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q24. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une insuffisance cardiaque diastolique peut résulter d'un défaut de relaxation ventriculaire ou de remplissage ventriculaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une insuffisance cardiaque diastolique, la fraction d'éjection ventriculaire est diminuée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une augmentation de la postcharge peut entraîner une insuffisance cardiaque systolique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q20. Concernant l'hémodynamique: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La compliance est égale au rapport (AP/AV) où AV est la variation de volume (em”}) et AP est la variation de pression (mmHg)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la loi de Laplace s'applique au ventricule, l'augmentation du rayon du ventricule diminue la contrainte  o qui s'exerce au niveau de la paroi et qui s'exprime en dynes.cm*    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selon la relation de Poiseuille-Hagen, le débit sanguin est proportionnel à la longueur du vaisseau.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q18. Concernant l'activité électrique cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le complexe QRS est positif en D2 et égal à 0 en aVL, l'axe du cœur est à -30°   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La transmission de l’activité électrique cardiaque est normalement ralentie au niveau du nœud auriculo-  ventriculaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La repolarisation auriculaire progresse de l’épicarde vers l'endocarde.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q12. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La précharge est assimilée au volume du ventricule en fin de diastole et dépend du retour veineux.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la fréquence cardiaque est de 100 battements par minute et le volume d'éjection systolique est de 80 ml/battement, le débit cardiaque est de SL par minute,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La loi de Frank-Starling, ou régulation homéométrique, permet l'adaptation du volume d'éjection systolique au niveau de remplissage ventriculaire de manière automatique et instantanée pour assurer un débit cardiaque approprié.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q13. Concernant l'activité électrique cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La durée de l'intervalle QT est fonction du rythme cardiaque.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La repolarisation auriculaire n'est pas visible sur l'ECG en raison de sa faible amplitude qui est masquée par le complexe QRS,     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le complexe QRS est positif en D1, positif en aVF et négatif en aVL, l'axe du cœur se situe entre +60 et +90°C    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q8. Concernant l'hémodynamique:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">. La compliance est un index de distension de la paroi du vaisseau, exprimé selon la relation: Ç = AP/ AV    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la loi de Laplace s'applique au ventricule, l'augmentation de la paroi ventriculaire permet de réduire la  contrainte o qui s'exerce au niveau de la paroi et qui s'exprime en dynes.cm*   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le rayon des vaisseaux est le principal déterminant du débit sanguin.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q6. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une insuffisance cardiaque systolique, la FEV est réduite et &lt; 40%   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une décompensation cardiaque droite peut entraîner un œdème pulmonaire hémodynamique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une sténose aortique augmente la postcharge du ventricule gauche.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2. Concernant l'activité électrique cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La lidocaïne et la tétrodotoxine (TTX).inhibent la phase 1 du potentiel d'action du cardiomyocyte.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vitesse de conduction est ralentie au niveau du nœud auriculo-ventriculaire où elle est de 0,05 m/sec    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le nœud sinusal est principalement innervé par le nerf vague gauche.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q35. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le ler bruit du cœur est lié à la fermeture des valves mitrale et tricuspide.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La phase de contraction isovolumétrique et la phase d'éjection constituent la systole..    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la fréquence cardiaque augmente, la durée de la diastole et la durée de la systole sont réduites de manière identique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q27. Concernant la pression artérielle: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la PA... = 116 mmHg et PA. = 80 mmHg, la PA moyenne est égale à 92 mmHg    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression artérielle pulsée diminue lorsque l'individu devient plus âgé.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'un exercice physique, la pression artérielle moyenne reste relativement stable dans la mesure où le débit cardiaque augmente et les résistances vasculaires périphériques diminuent.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q35. Concernant le système veineux: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'activité de la pompe musculaire des membres inférieurs augmente le retour veineux et la pression veineuse centrale,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une transfusion, le croisement des courbes de fonction cardiaque et veineuse est déplacé vers le haut et  la gauche.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Toutes les veines ont une compliance élevée et similaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q21. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la précharge augmente, la longueur des fibres augmente et le volume télédiastolique augmente.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si le débit cardiaque est de 6,4L/min et la fréquence cardiaque est de 80 battements par minute, le volume télésystolique est de 80 ml par battement.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La contractilité d'une fibre musculaire cardiaque peut être définie comme le changement de sa tension isométrique maximale à une longueur donnée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q18. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression systolique dans l'aorte et le ventricule gauche est + 5 fois plus élevée que dans l'artère pulmonaire et le ventricule droit.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le 2e bruit du cœur est lié à la fermeture des valves aortique et pulmonaire,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors de la phase de relaxation isovolumétrique du ventricule, la valve mitrale est fermée et la valve aortique est encore ouverte.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q15. Concernant les propriétés du muscle cardiaque:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la contractilité de la fibre musculaire cardiaque augmente, la relation force vitesse est déplacée vers le haut et la droite.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La courbe de tension de repos de la fibre musculaire cardiaque fixe la limite de son raccourcissement  lorsqu'elle soumise à un poids constant.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'augmentation de la postcharge diminue la vitesse de raccourcissement de la fibre musculaire cardiaque à une longueur initiale donnée càd à une précharge donnée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q14. Concernant la pression artérielle:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression pulsée augmente lorsque la compliance aortique augmente.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors du passage de la position assise à la station debout, la régulation de la PA moyenne s'opère  immédiatement, par l’activité des barorécepteurs du système vasculaire à haute pression.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la PA,,, = 120 mmHg et la PAsss = 75 mmHg, la PA moyenne calculée est égale à 90 mmHg     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q16. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une embolie pulmonaire massive augmente brutalement la postcharge du ventricule droit et du ventricule gauche.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors d'une insuffisance cardiaque diastolique, le débit cardiaque est insuffisant mais la fraction d'éjection  ventriculaire reste préservée.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La loi de Frank-Starling permet de comprendre que, dans les conditions physiologiques, le VES s'adapte automatiquement à la valeur du volume télédiastolique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q9. Concernant la pompe cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sur la courbe pression-volume, la diastole correspond à la phase de relaxation isovolumétrique du ventricule et à la phase de remplissage passif du ventricule.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la fréquence cardiaque est de 80 battements par minute, le volume télésystolique est de 60 ml et le  volume télédiastolique est de 120 ml, le débit cardiaque est de 4,8L/min.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La régulation homéométrique est un changement de contractilité, indépendamment de la précharge et de la postcharge,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q8. Concernant la pression artérielle: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La résistance totale périphérique (RTP) qui s'exprime en [{mmHg.min/L] peut être calculée d'après la formule: RTP = PA,,,/DC   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la pression artérielle moyenne augmente, la fréquence de décharge des barorécepteurs de la paroi du  sinus carotidien et de l’arc aortique diminue.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression artérielle pulsée est proportionnelle au volume d'éjection systolique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q7. Concernant l'activité électrique cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'onde P de l'ECG représente la repolarisation auriculaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le complexe QRS est positif en DIIT et égal à 0 en aVR, l'axe du coeur est à 120°, ce qui correspond à une déviation axiale droite.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'onde T positive d'un ECG normal est liée à la repolarisation ventriculaire qui progresse de l'épicarde vers l'endocarde.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q5. Concernant l'hémodynamique: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selon la loi de Laplace, la tension qui s'exerce au niveau de la paroi d'une structure creuse est inversement proportionnelle à la pression qui y règne et à son rayon.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vitesse du courant sanguin est la plus élevée au niveau du réseau artériel où la surface de section est la plus    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selon la relation de Poiseuille-Hagen, lors d'une vasoconstriction qui réduit le rayon d'un vaisseau de moitié, le débit sanguin diminue de 8 fois.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q14. Concernant le système veineux:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La compliance des veines périphérique est +25 fois supérieure à la compliance des veines centrales.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lors de l'exercice, le retour veineux est notamment favorisé par l'augmentation de la pompe respiratoire.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression veineuse centrale est la pression qui règne au niveau au niveau de la partie thoracique des veines caves, au niveau de l'oreillette droite et au niveau du ventricule droit.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression artérielle moyenne est mesurée en routine clinique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsqu'une perturbation se produit, la régulation de la PA s'opère immédiatement, par l'activité des  barorécepteurs du système vasculaire à haute et à basse pression.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q33. Concernant les propriétés du muscle cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La tension active du sarcomère d'un cardiomyocyte est maximale lorsque la longueur de repos du sarcomère se situe entre 2,2 et 2,4 um.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A chaque longueur d'une fibre musculaire cardiaque, la tension isométrique maximale qu'elle peut exercer  représente la somme de sa tension de repos et de sa tension active.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au niveau de la fibre musculaire cardiaque, la noradrénaline augmente V_A ,.,, mais sans modifier la tension isométrique maximale,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q22. Concernant l'homéostasie acide-base: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selon l'équation de Kassirer-Bleich, lorsque PCO2 = 27 mmHg et [HCO2] = 9 mEg/L, [H°] = 72 nM   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chez un individu normal et ayant un régime occidental, une sécrétion tubulaire de 70 mEg/j de H° est nécessaire pour assurer la réabsorption du HCO2 filtré quotidiennement.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'excrétion urinaire nette et quotidienne de H° = acidité titrable + ammonium — excrétion résiduelle de HCO2 (l'acidité titrable, l'ammonium et le HCO2 étant mesurés sur les urines de 24h)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q21. Concernant le système veineux: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le réseau veineux périphérique est un réseau capacitif qui contient +35 à 40% du sang.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le compartiment veineux central est situé entre le compartiment veineux périphérique et le ventricule droit.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression veineuse centrale augmente lors de la vasoconstriction veineuse,    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q18. Concernant le système cardiovasculaire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'aorte dont l'élastance est élevée a une compliance faible.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le système orthosympathique innerve les cardiomyocytes auriculaires et ventriculaires, le nœud sinusal et le  nœud auriculo-ventriculaire, par effet Beta-2.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La circulation pulmonaire est une circulation à haut débit et à basse pression.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q34. Concernant l'hémodynamique: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selon la relation de Laplace appliquée au ventricule, &amp; est la contrainte qui s'exerce au niveau de la paroi et qui est proportionnelle à l'épaisseur de cette paroi.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selon la relation de Poiseuille-Hagen, lorsque le rayon d'un vaisseau est doublé, le débit sanguin est multiplié  par 16.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La vitesse du courant sanguin est de l'ordre de 0,5 mm/sec au niveau du réseau capillaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q31. Concernant l'activité électrique cardiaque:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le complexe QRS est positif en DI et est positif en a VF, l'axe du cœur se situe entre O et -30°    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En absence d'onde P visible à l'ECG, le rythme peut être sinusal.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsqu'un infarctus transmural s'est produit, une onde Q est visible au niveau des dérivations sous lesquelles se trouve le myocarde infarci.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q27. Concernant le système cardiovasculaire: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le système parasympathique innerve le nœud sinusal (surtout via le nerf vague gauche) et le nœud auriculo- ventriculaire (surtout via le nerf vague droit).    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les artérioles représentent le lieu principal de la résistance à l'écoulement du sang dans la mesure où la chute  de pression qui s'exerce à leur niveau est la plus importante,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le débit sanguin de circulation pulmonaire est toujours égal au débit sanguin de la circulation systémique dans la mesure où ces deux circulations sont en série.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q26. Concernant la pompe cardiaque:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un infarctus du myocarde peut entraîner une insuffisance cardiaque systolique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le retour veineux augmente, le volume télédiastolique augmente.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En transposant les propriétés de la fibre musculaire cardiaque isolée au ventricule, on peut considérer que  l'importance du raccourcissement de la fibre correspond correspond à la vitesse d'éjection du ventricule.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q18. Concernant les propriétés du muscle cardiaque: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'inotropisme du muscle cardiaque est sa force de contraction qui dépend de la précharge et de la postcharge auxquelles il est soumis.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La noradrénaline augmente l'amplitude du raccourcissement de la fibre musculaire lors de la contraction  isotonique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dans les conditions physiologiques, les sarcomères du cardiomyocyte ont une longueur de 0,9 um, ce qui permet d'augmenter leur tension active lorsque la fibre est étirée jusqu'à 2.2-2,4 um.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le premier bruit du cœur est lié à la fermeture des valves aortique et pulmonaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La durée d’un cycle cardiaque est l'inverse de la fréquence cardiaque.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le volume télésystolique normal et au repos est de l'ordre de 50 à 60 ml.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q4,. En considérant le ventricule, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une augmentation de l’élastance diminue le volume télédiastolique pour une pression télédiastolique donnée.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une hypertension artérielle au long cours conduit à une hypertrophie du ventricule gauche qui débouche sur une diminution de la postcharge et de la précharge.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modifier la droite d'élastance de fin de systole revient à changer la contractilité.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q25. Concernant la tension artérielle, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si l’aorte était un tuyau complètement rigide, les pressions artérielles systoliques et diastoliques seraient très élevées.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> En cas d'hypertension aiguë, l'activation des barorécepteurs résulte notamment en une diminution du volume d'éjection systolique liée à une diminution de la précharge et de la contractilité.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tous les médicaments anti-hypertenseurs agissent soit par une diminution du volume d’éjection systolique, soit par une diminution de la fréquence cardiaque.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q22. Concernant la fraction d'éjection ventriculaire, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si le débit cardiaque est de 10 L/minute, la fréquence cardiaque de 100/minute et le volume télédiastolique de 150 mil, alors la fraction d'éjection est de 66%.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une fraction d'éjection de 30% peut se voir dans une sténose aortique du fait d’une contrainte o du ventricule  gauche augmentée même si la tension artérielle est basse.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La fraction d'éjection est souvent conservée dans la dysfonction diastolique alors que le débit cardiaque est diminué.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q21. Concernant l'électrocardiogramme, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comme conséquence d’une hypertension artérielle systémique non traitée au long cours, on ne sera pas surpris que le QRS soit isoélectrique en DII et négatif en aVF.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les ondes P et QRS apparaissent régulièrement mais la fréquence des P est plus élevée que celle des QRS et le  rythme cardiaque est de 45/minute. Cela suggère un bloc complet au niveau du nœud auriculo-ventriculaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un bloc de branche droit ou gauche donnera inévitablement un allongement du QRS.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q18. Concernant l'électrocardiogramme, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Si l'amplitude du QRS net semble être négative en aVF et très positive en aVL, une hypertrophie du ventricule droit est plausible.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un aspect qR est classique en V6.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'onde T positive après une dépolarisation électriquement globalement positive s'explique par le fait que la repolarisation du ventricule se fait de l'endocarde vers l'épicarde.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q17. En considérant les adaptations cardiovasculaires à l'exercice, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression artérielle moyenne augmente car les résistances périphériques totales diminuent plus que le débit cardiaque n'augmente.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression pulsée augmente car la pression artérielle moyenne augmente,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression veineuse centrale augmente du fait de la veino-constriction et de l'activité pompe musculaire et abdomino-thoracique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1. En considérant le ventricule, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une modification de l'élastance affecte avant tout la fonction systolique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une hypertrophie du ventricule gauche entraîne secondairement une diminution de la postcharge et de la précharge.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une modification du retour veineux va affecter la droite d'élastance de fin de systole.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q36. En considérant la régulation parasympathique et sympathique du cœur, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le tonus orthosympathique détermine la fréquence cardiaque de repos.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inotrope ou contractilité, chronotrope ou vitesse de conduction et dromotrope ou fréquence cardiaque: ces trois caractéristiques sont activées par la stimulation orthosympathique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La simulation orthosympathique augmente la pente du potentiel pace-maker.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q31. En considérant le travail cardiaque et la perfusion coronaire, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les augmentations de précharge, postcharge ou contractilité augmentent la consommation d'oxygène par le cœur mais celle qui l'augmente le moins est l'augmentation de précharge.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un médicament inotrope positif qui augmente le volume d'éjection systolique est excellent pour la perfusion coronaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'essentiel de l'énergie dépensée par le cœur se produit pendant la phase d'éjection ventriculaire.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q30. En considérant le muscle cardiaque, la précharge, la postcharge et la contractilité, caractériser par  ou  chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Par comparaison avec l'augmentation du raccourcissement d'une fibre myocardique isolée sous l'effet d'un agent inotrope, on utilisera l'amélioration de la fraction d'éjection à l'échelon du ventricule entier.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'augmentation isolée de la précharge implique une augmentation du volume d'éjection systolique à une vitesse  d'éjection plus rapide jusqu'à un volume télésystolique plus petit.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'augmentation isolée de la postcharge implique un volume télésystolique plus grand et une vitesse d’éjection moins rapide.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q28. En considérant le ventricule, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La postcharge correspond au © du ventricule gauche durant tout le temps de l’éjection ventriculaire.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La dilatation du ventricule augmente la postcharge et la précharge.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Précharge, postcharge et contractilité sont liées. Par exemple, une augmentation de la postcharge mène immédiatement à une augmentation de la précharge qui est suffisante pour corriger le volume d'éjection systolique.    </t>
+  </si>
+  <si>
+    <t>Certains états d'hyperhydratation du LEC peuvent s'accompagner de diminution de volume circulant effectif et de signes d'hypovolémie</t>
+  </si>
+  <si>
+    <t>La pression artériel pulsée est proportionnelle au VES et à la compliance aortique</t>
+  </si>
+  <si>
+    <t>Q3. Concernant la pression artérielle (PA)</t>
+  </si>
+  <si>
+    <t>C'est le nerf vague gauche</t>
+  </si>
+  <si>
+    <t>8*4/2 = 16 dyne.cm²</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le système orthosympathique exerce un effet Beta-1, au niveau des cardiomyocytes auriculaires et ventriculaires ainsi qu'au niveau du nœud sinusal et du nœud auriculo-ventriculaire.  </t>
+  </si>
+  <si>
+    <t>C'est principalement dans les artérioles</t>
+  </si>
+  <si>
+    <t>C'est proportionnelle</t>
+  </si>
+  <si>
+    <t>Se laisse facilement distendre pour une faible pression -&gt; compliance élevé car haut rapport variation de volume/pression</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La postcharge est la contrainte sigma (définie selon Laplace) qui s'exerce sur la paroi du ventricule au moment  où il se contracte et qui s'oppose à l’éjection du sang. </t>
+  </si>
+  <si>
+    <t>(90*2+120)/3 = 100</t>
+  </si>
+  <si>
+    <t>Il y a une augmentation de la pression pulsée</t>
+  </si>
+  <si>
+    <t>60/75 = 0,8s = 800msec</t>
+  </si>
+  <si>
+    <t>C'est innervé par le nerf vague droit</t>
+  </si>
+  <si>
+    <t>Le débit est inversement proportionnelle à la résistance et la résistance est inversement proportionnelle à rayon puissance 4</t>
+  </si>
+  <si>
+    <t>Beaucoup de fibres élastiques font en sorte que l'aorte a besoin de plus de pression pour changer de forme -&gt; une faible compliance et une forte elastance</t>
+  </si>
+  <si>
+    <t>Q = v.S donc pour un débit donnée, la vitesse du sang est inversement proportionnelle à la taille de la surface de la section</t>
+  </si>
+  <si>
+    <t>C'est la diastole qui est plus fortement réduit que la systole</t>
+  </si>
+  <si>
+    <t>Lors de l'inspiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la PAsyst = 130 mmHg et PAdiast = 70 mmHg, la PA moyenne est égale à 90 mmHg </t>
+  </si>
+  <si>
+    <t>(70*2+130)/3 = 90</t>
+  </si>
+  <si>
+    <t>Contrairement aux oreillettes</t>
+  </si>
+  <si>
+    <t>C'est un volume et non un débit donc c'est pas par minute</t>
+  </si>
+  <si>
+    <t>Non c'est le premier bruit</t>
+  </si>
+  <si>
+    <t>basse pression et basse résistance</t>
+  </si>
+  <si>
+    <t>Que 65%  pas 95%</t>
+  </si>
+  <si>
+    <t>de manière indirecte</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le 1er bruit du cœur est lié à l'ouverture des valves auriculo-ventriculaires. </t>
+  </si>
+  <si>
+    <t>C'est lié à la fermeture et non à l'ouverture (ouvrir ça fait aucun bruit alors que claquer une porte ça fait BAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La pression artérielle pulsée (Pp) est déterminée par la relation: Pp = CA/ VES  </t>
+  </si>
+  <si>
+    <t>c'est l'inverse</t>
+  </si>
+  <si>
+    <t>C'est le tonus parasympathique</t>
+  </si>
+  <si>
+    <t>Il est de l'ordre de 50-60mL (Le volume à la fin de la diastole (volume télédiastolique) est de 120-130mL, or le volume d'éjection systolique est de 70mL donc à la fin de la systole, on est à 130-70 = 60mL)</t>
   </si>
 </sst>
 </file>
@@ -473,16 +1556,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="C37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="3" width="73.28515625" customWidth="1"/>
+    <col min="2" max="2" width="132.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="209.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -540,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>342</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -574,30 +1657,30 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>343</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
+        <v>344</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -607,57 +1690,57 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>345</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>346</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -667,17 +1750,17 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -687,37 +1770,37 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>347</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -727,17 +1810,17 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
+        <v>348</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -747,17 +1830,17 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -767,77 +1850,77 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>349</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>350</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>351</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
@@ -847,17 +1930,17 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -867,37 +1950,37 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>352</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
+        <v>25</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
@@ -907,17 +1990,17 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
@@ -927,17 +2010,17 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
+        <v>27</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -947,77 +2030,77 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>353</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>354</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
+        <v>30</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>355</v>
       </c>
       <c r="F26" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
+        <v>31</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -1027,17 +2110,17 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
+        <v>32</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
       </c>
       <c r="E28" t="s">
         <v>6</v>
@@ -1047,17 +2130,17 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
+        <v>33</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>6</v>
@@ -1067,17 +2150,17 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
+        <v>34</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
       </c>
       <c r="E30" t="s">
         <v>6</v>
@@ -1087,37 +2170,37 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
+        <v>35</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>356</v>
       </c>
       <c r="F31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
+        <v>36</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
@@ -1127,37 +2210,37 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>357</v>
       </c>
       <c r="F33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
       </c>
       <c r="E34" t="s">
         <v>6</v>
@@ -1167,37 +2250,37 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
+        <v>358</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>359</v>
       </c>
       <c r="F35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
+        <v>39</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>6</v>
@@ -1207,17 +2290,17 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
-        <v>6</v>
+        <v>40</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
       </c>
       <c r="E37" t="s">
         <v>6</v>
@@ -1227,17 +2310,17 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s">
-        <v>6</v>
+        <v>41</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
       </c>
       <c r="E38" t="s">
         <v>6</v>
@@ -1247,37 +2330,37 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s">
-        <v>6</v>
+        <v>42</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
+        <v>43</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
       </c>
       <c r="E40" t="s">
         <v>6</v>
@@ -1287,17 +2370,17 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>6</v>
@@ -1307,37 +2390,37 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
+        <v>45</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>361</v>
       </c>
       <c r="F42" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
+        <v>46</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
@@ -1347,37 +2430,37 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>362</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" t="s">
-        <v>6</v>
+        <v>48</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
       </c>
       <c r="E45" t="s">
         <v>6</v>
@@ -1387,17 +2470,17 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
       </c>
       <c r="E46" t="s">
         <v>6</v>
@@ -1407,17 +2490,17 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" t="s">
-        <v>6</v>
+        <v>51</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
       </c>
       <c r="E47" t="s">
         <v>6</v>
@@ -1427,57 +2510,57 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" t="s">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="F48" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" t="s">
-        <v>6</v>
+        <v>53</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>364</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" t="s">
-        <v>6</v>
+        <v>54</v>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
       </c>
       <c r="E50" t="s">
         <v>6</v>
@@ -1487,57 +2570,57 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" t="s">
-        <v>6</v>
+        <v>55</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>365</v>
       </c>
       <c r="F51" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" t="s">
-        <v>6</v>
+        <v>366</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>367</v>
       </c>
       <c r="F52" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" t="s">
-        <v>6</v>
+        <v>56</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
@@ -1547,17 +2630,17 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" t="s">
-        <v>6</v>
+        <v>57</v>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
       </c>
       <c r="E54" t="s">
         <v>6</v>
@@ -1567,17 +2650,17 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" t="s">
-        <v>6</v>
+        <v>58</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
       </c>
       <c r="E55" t="s">
         <v>6</v>
@@ -1587,37 +2670,37 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" t="s">
-        <v>6</v>
+        <v>368</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>369</v>
       </c>
       <c r="F56" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" t="s">
-        <v>6</v>
+        <v>59</v>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
       </c>
       <c r="E57" t="s">
         <v>6</v>
@@ -1627,17 +2710,17 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" t="s">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
       </c>
       <c r="E58" t="s">
         <v>6</v>
@@ -1647,17 +2730,17 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>6</v>
+        <v>61</v>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
       </c>
       <c r="E59" t="s">
         <v>6</v>
@@ -1667,37 +2750,37 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" t="s">
-        <v>6</v>
+        <v>62</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>370</v>
       </c>
       <c r="F60" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" t="s">
-        <v>6</v>
+        <v>63</v>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
       </c>
       <c r="E61" t="s">
         <v>6</v>
@@ -1707,37 +2790,37 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" t="s">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>371</v>
       </c>
       <c r="F62" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" t="s">
-        <v>6</v>
+        <v>65</v>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
       </c>
       <c r="E63" t="s">
         <v>6</v>
@@ -1747,17 +2830,17 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" t="s">
-        <v>6</v>
+        <v>66</v>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
       </c>
       <c r="E64" t="s">
         <v>6</v>
@@ -1767,17 +2850,17 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" t="s">
-        <v>6</v>
+        <v>67</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
       </c>
       <c r="E65" t="s">
         <v>6</v>
@@ -1787,17 +2870,17 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" t="s">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
       </c>
       <c r="E66" t="s">
         <v>6</v>
@@ -1807,17 +2890,17 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" t="s">
-        <v>6</v>
+        <v>69</v>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
       </c>
       <c r="E67" t="s">
         <v>6</v>
@@ -1827,17 +2910,17 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" t="s">
-        <v>6</v>
+        <v>71</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
       </c>
       <c r="E68" t="s">
         <v>6</v>
@@ -1847,17 +2930,17 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" t="s">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
       </c>
       <c r="E69" t="s">
         <v>6</v>
@@ -1867,17 +2950,17 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" t="s">
-        <v>6</v>
+        <v>73</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
       </c>
       <c r="E70" t="s">
         <v>6</v>
@@ -1887,17 +2970,17 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" t="s">
-        <v>6</v>
+        <v>75</v>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
       </c>
       <c r="E71" t="s">
         <v>6</v>
@@ -1907,17 +2990,17 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
       </c>
       <c r="E72" t="s">
         <v>6</v>
@@ -1927,17 +3010,17 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" t="s">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
       </c>
       <c r="E73" t="s">
         <v>6</v>
@@ -1947,17 +3030,17 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" t="s">
-        <v>6</v>
+        <v>79</v>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
       </c>
       <c r="E74" t="s">
         <v>6</v>
@@ -1967,17 +3050,17 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" t="s">
-        <v>6</v>
+        <v>80</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
       </c>
       <c r="E75" t="s">
         <v>6</v>
@@ -1987,17 +3070,17 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" t="s">
-        <v>6</v>
+        <v>81</v>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
       </c>
       <c r="E76" t="s">
         <v>6</v>
@@ -2007,17 +3090,17 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
-      </c>
-      <c r="D77" t="s">
-        <v>6</v>
+        <v>83</v>
+      </c>
+      <c r="D77" t="b">
+        <v>0</v>
       </c>
       <c r="E77" t="s">
         <v>6</v>
@@ -2027,17 +3110,17 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" t="s">
-        <v>6</v>
+        <v>84</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
       </c>
       <c r="E78" t="s">
         <v>6</v>
@@ -2047,17 +3130,17 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" t="s">
-        <v>6</v>
+        <v>85</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
       </c>
       <c r="E79" t="s">
         <v>6</v>
@@ -2067,17 +3150,17 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" t="s">
-        <v>6</v>
+        <v>87</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
       </c>
       <c r="E80" t="s">
         <v>6</v>
@@ -2087,17 +3170,17 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" t="s">
-        <v>6</v>
+        <v>88</v>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
       </c>
       <c r="E81" t="s">
         <v>6</v>
@@ -2107,17 +3190,17 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" t="s">
-        <v>6</v>
+        <v>89</v>
+      </c>
+      <c r="D82" t="b">
+        <v>0</v>
       </c>
       <c r="E82" t="s">
         <v>6</v>
@@ -2127,17 +3210,17 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" t="s">
-        <v>6</v>
+        <v>91</v>
+      </c>
+      <c r="D83" t="b">
+        <v>0</v>
       </c>
       <c r="E83" t="s">
         <v>6</v>
@@ -2147,17 +3230,17 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" t="s">
-        <v>6</v>
+        <v>92</v>
+      </c>
+      <c r="D84" t="b">
+        <v>0</v>
       </c>
       <c r="E84" t="s">
         <v>6</v>
@@ -2167,17 +3250,17 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" t="s">
-        <v>6</v>
+        <v>93</v>
+      </c>
+      <c r="D85" t="b">
+        <v>0</v>
       </c>
       <c r="E85" t="s">
         <v>6</v>
@@ -2187,17 +3270,17 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" t="s">
-        <v>6</v>
+        <v>95</v>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
       </c>
       <c r="E86" t="s">
         <v>6</v>
@@ -2207,17 +3290,17 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" t="s">
-        <v>6</v>
+        <v>96</v>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
       </c>
       <c r="E87" t="s">
         <v>6</v>
@@ -2227,17 +3310,17 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" t="s">
-        <v>6</v>
+        <v>339</v>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
       </c>
       <c r="E88" t="s">
         <v>6</v>
@@ -2247,17 +3330,17 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" t="s">
-        <v>6</v>
+        <v>98</v>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
       </c>
       <c r="E89" t="s">
         <v>6</v>
@@ -2267,17 +3350,17 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" t="s">
-        <v>6</v>
+        <v>99</v>
+      </c>
+      <c r="D90" t="b">
+        <v>1</v>
       </c>
       <c r="E90" t="s">
         <v>6</v>
@@ -2287,17 +3370,17 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" t="s">
-        <v>6</v>
+        <v>100</v>
+      </c>
+      <c r="D91" t="b">
+        <v>0</v>
       </c>
       <c r="E91" t="s">
         <v>6</v>
@@ -2307,17 +3390,17 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" t="s">
-        <v>6</v>
+        <v>102</v>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
       </c>
       <c r="E92" t="s">
         <v>6</v>
@@ -2327,17 +3410,17 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" t="s">
-        <v>6</v>
+        <v>103</v>
+      </c>
+      <c r="D93" t="b">
+        <v>1</v>
       </c>
       <c r="E93" t="s">
         <v>6</v>
@@ -2347,17 +3430,17 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" t="s">
-        <v>6</v>
+        <v>104</v>
+      </c>
+      <c r="D94" t="b">
+        <v>0</v>
       </c>
       <c r="E94" t="s">
         <v>6</v>
@@ -2367,17 +3450,17 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
-      </c>
-      <c r="D95" t="s">
-        <v>6</v>
+        <v>106</v>
+      </c>
+      <c r="D95" t="b">
+        <v>1</v>
       </c>
       <c r="E95" t="s">
         <v>6</v>
@@ -2387,17 +3470,17 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" t="s">
-        <v>6</v>
+        <v>107</v>
+      </c>
+      <c r="D96" t="b">
+        <v>1</v>
       </c>
       <c r="E96" t="s">
         <v>6</v>
@@ -2407,17 +3490,17 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" t="s">
-        <v>6</v>
+        <v>108</v>
+      </c>
+      <c r="D97" t="b">
+        <v>0</v>
       </c>
       <c r="E97" t="s">
         <v>6</v>
@@ -2427,17 +3510,17 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" t="s">
-        <v>6</v>
+        <v>110</v>
+      </c>
+      <c r="D98" t="b">
+        <v>1</v>
       </c>
       <c r="E98" t="s">
         <v>6</v>
@@ -2447,17 +3530,17 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" t="s">
-        <v>6</v>
+        <v>111</v>
+      </c>
+      <c r="D99" t="b">
+        <v>0</v>
       </c>
       <c r="E99" t="s">
         <v>6</v>
@@ -2467,17 +3550,17 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" t="s">
-        <v>6</v>
+        <v>112</v>
+      </c>
+      <c r="D100" t="b">
+        <v>1</v>
       </c>
       <c r="E100" t="s">
         <v>6</v>
@@ -2487,17 +3570,17 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" t="s">
-        <v>6</v>
+        <v>114</v>
+      </c>
+      <c r="D101" t="b">
+        <v>0</v>
       </c>
       <c r="E101" t="s">
         <v>6</v>
@@ -2507,17 +3590,17 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" t="s">
-        <v>6</v>
+        <v>115</v>
+      </c>
+      <c r="D102" t="b">
+        <v>1</v>
       </c>
       <c r="E102" t="s">
         <v>6</v>
@@ -2527,17 +3610,17 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" t="s">
-        <v>6</v>
+        <v>116</v>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
       </c>
       <c r="E103" t="s">
         <v>6</v>
@@ -2547,17 +3630,17 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" t="s">
-        <v>6</v>
+        <v>117</v>
+      </c>
+      <c r="D104" t="b">
+        <v>0</v>
       </c>
       <c r="E104" t="s">
         <v>6</v>
@@ -2567,17 +3650,17 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" t="s">
-        <v>6</v>
+        <v>118</v>
+      </c>
+      <c r="D105" t="b">
+        <v>1</v>
       </c>
       <c r="E105" t="s">
         <v>6</v>
@@ -2587,17 +3670,17 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" t="s">
-        <v>6</v>
+        <v>119</v>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
       </c>
       <c r="E106" t="s">
         <v>6</v>
@@ -2606,7 +3689,3426 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" t="s">
+        <v>121</v>
+      </c>
+      <c r="D107" t="b">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>120</v>
+      </c>
+      <c r="C108" t="s">
+        <v>122</v>
+      </c>
+      <c r="D108" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>120</v>
+      </c>
+      <c r="C109" t="s">
+        <v>123</v>
+      </c>
+      <c r="D109" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>124</v>
+      </c>
+      <c r="C110" t="s">
+        <v>125</v>
+      </c>
+      <c r="D110" t="b">
+        <v>0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>124</v>
+      </c>
+      <c r="C111" t="s">
+        <v>126</v>
+      </c>
+      <c r="D111" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>6</v>
+      </c>
+      <c r="F111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>124</v>
+      </c>
+      <c r="C112" t="s">
+        <v>127</v>
+      </c>
+      <c r="D112" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>128</v>
+      </c>
+      <c r="C113" t="s">
+        <v>129</v>
+      </c>
+      <c r="D113" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>128</v>
+      </c>
+      <c r="C114" t="s">
+        <v>130</v>
+      </c>
+      <c r="D114" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>128</v>
+      </c>
+      <c r="C115" t="s">
+        <v>131</v>
+      </c>
+      <c r="D115" t="b">
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>6</v>
+      </c>
+      <c r="F115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>132</v>
+      </c>
+      <c r="C116" t="s">
+        <v>133</v>
+      </c>
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>132</v>
+      </c>
+      <c r="C117" t="s">
+        <v>134</v>
+      </c>
+      <c r="D117" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>6</v>
+      </c>
+      <c r="F117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>132</v>
+      </c>
+      <c r="C118" t="s">
+        <v>135</v>
+      </c>
+      <c r="D118" t="b">
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>136</v>
+      </c>
+      <c r="C119" t="s">
+        <v>137</v>
+      </c>
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>6</v>
+      </c>
+      <c r="F119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>136</v>
+      </c>
+      <c r="C120" t="s">
+        <v>138</v>
+      </c>
+      <c r="D120" t="b">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>136</v>
+      </c>
+      <c r="C121" t="s">
+        <v>139</v>
+      </c>
+      <c r="D121" t="b">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>140</v>
+      </c>
+      <c r="C122" t="s">
+        <v>141</v>
+      </c>
+      <c r="D122" t="b">
+        <v>0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>140</v>
+      </c>
+      <c r="C123" t="s">
+        <v>142</v>
+      </c>
+      <c r="D123" t="b">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>140</v>
+      </c>
+      <c r="C124" t="s">
+        <v>143</v>
+      </c>
+      <c r="D124" t="b">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>6</v>
+      </c>
+      <c r="F124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" t="s">
+        <v>144</v>
+      </c>
+      <c r="D125" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>6</v>
+      </c>
+      <c r="F125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>145</v>
+      </c>
+      <c r="D126" t="b">
+        <v>1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>6</v>
+      </c>
+      <c r="F126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>146</v>
+      </c>
+      <c r="D127" t="b">
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>6</v>
+      </c>
+      <c r="F127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>147</v>
+      </c>
+      <c r="D128" t="b">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" t="s">
+        <v>148</v>
+      </c>
+      <c r="D129" t="b">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>6</v>
+      </c>
+      <c r="F129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>149</v>
+      </c>
+      <c r="D130" t="b">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>6</v>
+      </c>
+      <c r="F130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" t="s">
+        <v>150</v>
+      </c>
+      <c r="D131" t="b">
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>6</v>
+      </c>
+      <c r="F131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" t="s">
+        <v>151</v>
+      </c>
+      <c r="D132" t="b">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>6</v>
+      </c>
+      <c r="F132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" t="s">
+        <v>152</v>
+      </c>
+      <c r="D133" t="b">
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>6</v>
+      </c>
+      <c r="F133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" t="s">
+        <v>153</v>
+      </c>
+      <c r="D134" t="b">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>6</v>
+      </c>
+      <c r="F134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" t="s">
+        <v>154</v>
+      </c>
+      <c r="D135" t="b">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" t="s">
+        <v>155</v>
+      </c>
+      <c r="D136" t="b">
+        <v>1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>6</v>
+      </c>
+      <c r="F136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" t="s">
+        <v>156</v>
+      </c>
+      <c r="D137" t="b">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>6</v>
+      </c>
+      <c r="F137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" t="s">
+        <v>157</v>
+      </c>
+      <c r="D138" t="b">
+        <v>0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>6</v>
+      </c>
+      <c r="F138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" t="s">
+        <v>158</v>
+      </c>
+      <c r="D139" t="b">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>6</v>
+      </c>
+      <c r="F139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
+      </c>
+      <c r="C140" t="s">
+        <v>159</v>
+      </c>
+      <c r="D140" t="b">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>6</v>
+      </c>
+      <c r="F140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" t="s">
+        <v>160</v>
+      </c>
+      <c r="D141" t="b">
+        <v>0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>6</v>
+      </c>
+      <c r="F141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>6</v>
+      </c>
+      <c r="C142" t="s">
+        <v>161</v>
+      </c>
+      <c r="D142" t="b">
+        <v>0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>6</v>
+      </c>
+      <c r="F142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>162</v>
+      </c>
+      <c r="C143" t="s">
+        <v>163</v>
+      </c>
+      <c r="D143" t="b">
+        <v>0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>6</v>
+      </c>
+      <c r="F143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>162</v>
+      </c>
+      <c r="C144" t="s">
+        <v>164</v>
+      </c>
+      <c r="D144" t="b">
+        <v>0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>6</v>
+      </c>
+      <c r="F144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>162</v>
+      </c>
+      <c r="C145" t="s">
+        <v>165</v>
+      </c>
+      <c r="D145" t="b">
+        <v>0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>6</v>
+      </c>
+      <c r="F145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>166</v>
+      </c>
+      <c r="C146" t="s">
+        <v>167</v>
+      </c>
+      <c r="D146" t="b">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>6</v>
+      </c>
+      <c r="F146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>166</v>
+      </c>
+      <c r="C147" t="s">
+        <v>168</v>
+      </c>
+      <c r="D147" t="b">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>6</v>
+      </c>
+      <c r="F147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>166</v>
+      </c>
+      <c r="C148" t="s">
+        <v>169</v>
+      </c>
+      <c r="D148" t="b">
+        <v>0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>6</v>
+      </c>
+      <c r="F148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>170</v>
+      </c>
+      <c r="C149" t="s">
+        <v>171</v>
+      </c>
+      <c r="D149" t="b">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>6</v>
+      </c>
+      <c r="F149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>170</v>
+      </c>
+      <c r="C150" t="s">
+        <v>172</v>
+      </c>
+      <c r="D150" t="b">
+        <v>0</v>
+      </c>
+      <c r="E150" t="s">
+        <v>6</v>
+      </c>
+      <c r="F150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>170</v>
+      </c>
+      <c r="C151" t="s">
+        <v>173</v>
+      </c>
+      <c r="D151" t="b">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>6</v>
+      </c>
+      <c r="F151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>174</v>
+      </c>
+      <c r="C152" t="s">
+        <v>175</v>
+      </c>
+      <c r="D152" t="b">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>6</v>
+      </c>
+      <c r="F152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>174</v>
+      </c>
+      <c r="C153" t="s">
+        <v>176</v>
+      </c>
+      <c r="D153" t="b">
+        <v>0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>6</v>
+      </c>
+      <c r="F153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>174</v>
+      </c>
+      <c r="C154" t="s">
+        <v>177</v>
+      </c>
+      <c r="D154" t="b">
+        <v>0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>6</v>
+      </c>
+      <c r="F154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>178</v>
+      </c>
+      <c r="C155" t="s">
+        <v>179</v>
+      </c>
+      <c r="D155" t="b">
+        <v>1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>6</v>
+      </c>
+      <c r="F155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>178</v>
+      </c>
+      <c r="C156" t="s">
+        <v>180</v>
+      </c>
+      <c r="D156" t="b">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>6</v>
+      </c>
+      <c r="F156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>178</v>
+      </c>
+      <c r="C157" t="s">
+        <v>181</v>
+      </c>
+      <c r="D157" t="b">
+        <v>0</v>
+      </c>
+      <c r="E157" t="s">
+        <v>6</v>
+      </c>
+      <c r="F157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>182</v>
+      </c>
+      <c r="C158" t="s">
+        <v>183</v>
+      </c>
+      <c r="D158" t="b">
+        <v>1</v>
+      </c>
+      <c r="E158" t="s">
+        <v>6</v>
+      </c>
+      <c r="F158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>182</v>
+      </c>
+      <c r="C159" t="s">
+        <v>184</v>
+      </c>
+      <c r="D159" t="b">
+        <v>1</v>
+      </c>
+      <c r="E159" t="s">
+        <v>6</v>
+      </c>
+      <c r="F159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>182</v>
+      </c>
+      <c r="C160" t="s">
+        <v>185</v>
+      </c>
+      <c r="D160" t="b">
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>6</v>
+      </c>
+      <c r="F160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>186</v>
+      </c>
+      <c r="C161" t="s">
+        <v>187</v>
+      </c>
+      <c r="D161" t="b">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>6</v>
+      </c>
+      <c r="F161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>186</v>
+      </c>
+      <c r="C162" t="s">
+        <v>188</v>
+      </c>
+      <c r="D162" t="b">
+        <v>1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>6</v>
+      </c>
+      <c r="F162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>186</v>
+      </c>
+      <c r="C163" t="s">
+        <v>189</v>
+      </c>
+      <c r="D163" t="b">
+        <v>1</v>
+      </c>
+      <c r="E163" t="s">
+        <v>6</v>
+      </c>
+      <c r="F163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>190</v>
+      </c>
+      <c r="C164" t="s">
+        <v>191</v>
+      </c>
+      <c r="D164" t="b">
+        <v>0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>6</v>
+      </c>
+      <c r="F164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>190</v>
+      </c>
+      <c r="C165" t="s">
+        <v>192</v>
+      </c>
+      <c r="D165" t="b">
+        <v>1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>6</v>
+      </c>
+      <c r="F165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>190</v>
+      </c>
+      <c r="C166" t="s">
+        <v>193</v>
+      </c>
+      <c r="D166" t="b">
+        <v>1</v>
+      </c>
+      <c r="E166" t="s">
+        <v>6</v>
+      </c>
+      <c r="F166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>194</v>
+      </c>
+      <c r="C167" t="s">
+        <v>195</v>
+      </c>
+      <c r="D167" t="b">
+        <v>1</v>
+      </c>
+      <c r="E167" t="s">
+        <v>6</v>
+      </c>
+      <c r="F167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>194</v>
+      </c>
+      <c r="C168" t="s">
+        <v>196</v>
+      </c>
+      <c r="D168" t="b">
+        <v>0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>6</v>
+      </c>
+      <c r="F168" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>194</v>
+      </c>
+      <c r="C169" t="s">
+        <v>197</v>
+      </c>
+      <c r="D169" t="b">
+        <v>1</v>
+      </c>
+      <c r="E169" t="s">
+        <v>6</v>
+      </c>
+      <c r="F169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>198</v>
+      </c>
+      <c r="C170" t="s">
+        <v>199</v>
+      </c>
+      <c r="D170" t="b">
+        <v>0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>6</v>
+      </c>
+      <c r="F170" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>198</v>
+      </c>
+      <c r="C171" t="s">
+        <v>200</v>
+      </c>
+      <c r="D171" t="b">
+        <v>1</v>
+      </c>
+      <c r="E171" t="s">
+        <v>6</v>
+      </c>
+      <c r="F171" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>198</v>
+      </c>
+      <c r="C172" t="s">
+        <v>201</v>
+      </c>
+      <c r="D172" t="b">
+        <v>0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>6</v>
+      </c>
+      <c r="F172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>202</v>
+      </c>
+      <c r="C173" t="s">
+        <v>203</v>
+      </c>
+      <c r="D173" t="b">
+        <v>1</v>
+      </c>
+      <c r="E173" t="s">
+        <v>6</v>
+      </c>
+      <c r="F173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>202</v>
+      </c>
+      <c r="C174" t="s">
+        <v>204</v>
+      </c>
+      <c r="D174" t="b">
+        <v>1</v>
+      </c>
+      <c r="E174" t="s">
+        <v>6</v>
+      </c>
+      <c r="F174" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>202</v>
+      </c>
+      <c r="C175" t="s">
+        <v>205</v>
+      </c>
+      <c r="D175" t="b">
+        <v>0</v>
+      </c>
+      <c r="E175" t="s">
+        <v>6</v>
+      </c>
+      <c r="F175" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>206</v>
+      </c>
+      <c r="C176" t="s">
+        <v>207</v>
+      </c>
+      <c r="D176" t="b">
+        <v>1</v>
+      </c>
+      <c r="E176" t="s">
+        <v>6</v>
+      </c>
+      <c r="F176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>206</v>
+      </c>
+      <c r="C177" t="s">
+        <v>208</v>
+      </c>
+      <c r="D177" t="b">
+        <v>0</v>
+      </c>
+      <c r="E177" t="s">
+        <v>6</v>
+      </c>
+      <c r="F177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>206</v>
+      </c>
+      <c r="C178" t="s">
+        <v>209</v>
+      </c>
+      <c r="D178" t="b">
+        <v>1</v>
+      </c>
+      <c r="E178" t="s">
+        <v>6</v>
+      </c>
+      <c r="F178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>210</v>
+      </c>
+      <c r="C179" t="s">
+        <v>211</v>
+      </c>
+      <c r="D179" t="b">
+        <v>1</v>
+      </c>
+      <c r="E179" t="s">
+        <v>6</v>
+      </c>
+      <c r="F179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>210</v>
+      </c>
+      <c r="C180" t="s">
+        <v>212</v>
+      </c>
+      <c r="D180" t="b">
+        <v>0</v>
+      </c>
+      <c r="E180" t="s">
+        <v>6</v>
+      </c>
+      <c r="F180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>210</v>
+      </c>
+      <c r="C181" t="s">
+        <v>213</v>
+      </c>
+      <c r="D181" t="b">
+        <v>0</v>
+      </c>
+      <c r="E181" t="s">
+        <v>6</v>
+      </c>
+      <c r="F181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>214</v>
+      </c>
+      <c r="C182" t="s">
+        <v>215</v>
+      </c>
+      <c r="D182" t="b">
+        <v>1</v>
+      </c>
+      <c r="E182" t="s">
+        <v>6</v>
+      </c>
+      <c r="F182" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>214</v>
+      </c>
+      <c r="C183" t="s">
+        <v>216</v>
+      </c>
+      <c r="D183" t="b">
+        <v>0</v>
+      </c>
+      <c r="E183" t="s">
+        <v>6</v>
+      </c>
+      <c r="F183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>214</v>
+      </c>
+      <c r="C184" t="s">
+        <v>217</v>
+      </c>
+      <c r="D184" t="b">
+        <v>1</v>
+      </c>
+      <c r="E184" t="s">
+        <v>6</v>
+      </c>
+      <c r="F184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>218</v>
+      </c>
+      <c r="C185" t="s">
+        <v>219</v>
+      </c>
+      <c r="D185" t="b">
+        <v>1</v>
+      </c>
+      <c r="E185" t="s">
+        <v>6</v>
+      </c>
+      <c r="F185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>218</v>
+      </c>
+      <c r="C186" t="s">
+        <v>220</v>
+      </c>
+      <c r="D186" t="b">
+        <v>1</v>
+      </c>
+      <c r="E186" t="s">
+        <v>6</v>
+      </c>
+      <c r="F186" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>218</v>
+      </c>
+      <c r="C187" t="s">
+        <v>221</v>
+      </c>
+      <c r="D187" t="b">
+        <v>0</v>
+      </c>
+      <c r="E187" t="s">
+        <v>6</v>
+      </c>
+      <c r="F187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>222</v>
+      </c>
+      <c r="C188" t="s">
+        <v>223</v>
+      </c>
+      <c r="D188" t="b">
+        <v>1</v>
+      </c>
+      <c r="E188" t="s">
+        <v>6</v>
+      </c>
+      <c r="F188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>222</v>
+      </c>
+      <c r="C189" t="s">
+        <v>224</v>
+      </c>
+      <c r="D189" t="b">
+        <v>0</v>
+      </c>
+      <c r="E189" t="s">
+        <v>6</v>
+      </c>
+      <c r="F189" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>222</v>
+      </c>
+      <c r="C190" t="s">
+        <v>225</v>
+      </c>
+      <c r="D190" t="b">
+        <v>1</v>
+      </c>
+      <c r="E190" t="s">
+        <v>6</v>
+      </c>
+      <c r="F190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>226</v>
+      </c>
+      <c r="C191" t="s">
+        <v>227</v>
+      </c>
+      <c r="D191" t="b">
+        <v>0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>6</v>
+      </c>
+      <c r="F191" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>226</v>
+      </c>
+      <c r="C192" t="s">
+        <v>228</v>
+      </c>
+      <c r="D192" t="b">
+        <v>1</v>
+      </c>
+      <c r="E192" t="s">
+        <v>6</v>
+      </c>
+      <c r="F192" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>226</v>
+      </c>
+      <c r="C193" t="s">
+        <v>229</v>
+      </c>
+      <c r="D193" t="b">
+        <v>1</v>
+      </c>
+      <c r="E193" t="s">
+        <v>6</v>
+      </c>
+      <c r="F193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>230</v>
+      </c>
+      <c r="C194" t="s">
+        <v>231</v>
+      </c>
+      <c r="D194" t="b">
+        <v>0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>6</v>
+      </c>
+      <c r="F194" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>230</v>
+      </c>
+      <c r="C195" t="s">
+        <v>232</v>
+      </c>
+      <c r="D195" t="b">
+        <v>1</v>
+      </c>
+      <c r="E195" t="s">
+        <v>6</v>
+      </c>
+      <c r="F195" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>230</v>
+      </c>
+      <c r="C196" t="s">
+        <v>233</v>
+      </c>
+      <c r="D196" t="b">
+        <v>1</v>
+      </c>
+      <c r="E196" t="s">
+        <v>6</v>
+      </c>
+      <c r="F196" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>234</v>
+      </c>
+      <c r="C197" t="s">
+        <v>235</v>
+      </c>
+      <c r="D197" t="b">
+        <v>1</v>
+      </c>
+      <c r="E197" t="s">
+        <v>6</v>
+      </c>
+      <c r="F197" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>234</v>
+      </c>
+      <c r="C198" t="s">
+        <v>236</v>
+      </c>
+      <c r="D198" t="b">
+        <v>1</v>
+      </c>
+      <c r="E198" t="s">
+        <v>6</v>
+      </c>
+      <c r="F198" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>234</v>
+      </c>
+      <c r="C199" t="s">
+        <v>237</v>
+      </c>
+      <c r="D199" t="b">
+        <v>1</v>
+      </c>
+      <c r="E199" t="s">
+        <v>6</v>
+      </c>
+      <c r="F199" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>238</v>
+      </c>
+      <c r="C200" t="s">
+        <v>239</v>
+      </c>
+      <c r="D200" t="b">
+        <v>1</v>
+      </c>
+      <c r="E200" t="s">
+        <v>6</v>
+      </c>
+      <c r="F200" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>238</v>
+      </c>
+      <c r="C201" t="s">
+        <v>240</v>
+      </c>
+      <c r="D201" t="b">
+        <v>0</v>
+      </c>
+      <c r="E201" t="s">
+        <v>6</v>
+      </c>
+      <c r="F201" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>238</v>
+      </c>
+      <c r="C202" t="s">
+        <v>241</v>
+      </c>
+      <c r="D202" t="b">
+        <v>1</v>
+      </c>
+      <c r="E202" t="s">
+        <v>6</v>
+      </c>
+      <c r="F202" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>242</v>
+      </c>
+      <c r="C203" t="s">
+        <v>243</v>
+      </c>
+      <c r="D203" t="b">
+        <v>0</v>
+      </c>
+      <c r="E203" t="s">
+        <v>6</v>
+      </c>
+      <c r="F203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>242</v>
+      </c>
+      <c r="C204" t="s">
+        <v>244</v>
+      </c>
+      <c r="D204" t="b">
+        <v>1</v>
+      </c>
+      <c r="E204" t="s">
+        <v>6</v>
+      </c>
+      <c r="F204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>242</v>
+      </c>
+      <c r="C205" t="s">
+        <v>245</v>
+      </c>
+      <c r="D205" t="b">
+        <v>1</v>
+      </c>
+      <c r="E205" t="s">
+        <v>6</v>
+      </c>
+      <c r="F205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>246</v>
+      </c>
+      <c r="C206" t="s">
+        <v>247</v>
+      </c>
+      <c r="D206" t="b">
+        <v>0</v>
+      </c>
+      <c r="E206" t="s">
+        <v>6</v>
+      </c>
+      <c r="F206" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>246</v>
+      </c>
+      <c r="C207" t="s">
+        <v>248</v>
+      </c>
+      <c r="D207" t="b">
+        <v>0</v>
+      </c>
+      <c r="E207" t="s">
+        <v>6</v>
+      </c>
+      <c r="F207" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>246</v>
+      </c>
+      <c r="C208" t="s">
+        <v>249</v>
+      </c>
+      <c r="D208" t="b">
+        <v>0</v>
+      </c>
+      <c r="E208" t="s">
+        <v>6</v>
+      </c>
+      <c r="F208" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>250</v>
+      </c>
+      <c r="C209" t="s">
+        <v>251</v>
+      </c>
+      <c r="D209" t="b">
+        <v>1</v>
+      </c>
+      <c r="E209" t="s">
+        <v>6</v>
+      </c>
+      <c r="F209" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>250</v>
+      </c>
+      <c r="C210" t="s">
+        <v>252</v>
+      </c>
+      <c r="D210" t="b">
+        <v>1</v>
+      </c>
+      <c r="E210" t="s">
+        <v>6</v>
+      </c>
+      <c r="F210" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>250</v>
+      </c>
+      <c r="C211" t="s">
+        <v>253</v>
+      </c>
+      <c r="D211" t="b">
+        <v>0</v>
+      </c>
+      <c r="E211" t="s">
+        <v>6</v>
+      </c>
+      <c r="F211" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>341</v>
+      </c>
+      <c r="C212" t="s">
+        <v>340</v>
+      </c>
+      <c r="D212" t="b">
+        <v>0</v>
+      </c>
+      <c r="E212" t="s">
+        <v>6</v>
+      </c>
+      <c r="F212" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>341</v>
+      </c>
+      <c r="C213" t="s">
+        <v>254</v>
+      </c>
+      <c r="D213" t="b">
+        <v>0</v>
+      </c>
+      <c r="E213" t="s">
+        <v>6</v>
+      </c>
+      <c r="F213" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>341</v>
+      </c>
+      <c r="C214" t="s">
+        <v>255</v>
+      </c>
+      <c r="D214" t="b">
+        <v>0</v>
+      </c>
+      <c r="E214" t="s">
+        <v>6</v>
+      </c>
+      <c r="F214" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>256</v>
+      </c>
+      <c r="C215" t="s">
+        <v>257</v>
+      </c>
+      <c r="D215" t="b">
+        <v>1</v>
+      </c>
+      <c r="E215" t="s">
+        <v>6</v>
+      </c>
+      <c r="F215" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>256</v>
+      </c>
+      <c r="C216" t="s">
+        <v>258</v>
+      </c>
+      <c r="D216" t="b">
+        <v>1</v>
+      </c>
+      <c r="E216" t="s">
+        <v>6</v>
+      </c>
+      <c r="F216" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>256</v>
+      </c>
+      <c r="C217" t="s">
+        <v>259</v>
+      </c>
+      <c r="D217" t="b">
+        <v>0</v>
+      </c>
+      <c r="E217" t="s">
+        <v>6</v>
+      </c>
+      <c r="F217" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>260</v>
+      </c>
+      <c r="C218" t="s">
+        <v>261</v>
+      </c>
+      <c r="D218" t="b">
+        <v>1</v>
+      </c>
+      <c r="E218" t="s">
+        <v>6</v>
+      </c>
+      <c r="F218" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>260</v>
+      </c>
+      <c r="C219" t="s">
+        <v>262</v>
+      </c>
+      <c r="D219" t="b">
+        <v>0</v>
+      </c>
+      <c r="E219" t="s">
+        <v>6</v>
+      </c>
+      <c r="F219" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>260</v>
+      </c>
+      <c r="C220" t="s">
+        <v>263</v>
+      </c>
+      <c r="D220" t="b">
+        <v>1</v>
+      </c>
+      <c r="E220" t="s">
+        <v>6</v>
+      </c>
+      <c r="F220" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>264</v>
+      </c>
+      <c r="C221" t="s">
+        <v>265</v>
+      </c>
+      <c r="D221" t="b">
+        <v>0</v>
+      </c>
+      <c r="E221" t="s">
+        <v>6</v>
+      </c>
+      <c r="F221" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>264</v>
+      </c>
+      <c r="C222" t="s">
+        <v>266</v>
+      </c>
+      <c r="D222" t="b">
+        <v>1</v>
+      </c>
+      <c r="E222" t="s">
+        <v>6</v>
+      </c>
+      <c r="F222" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>264</v>
+      </c>
+      <c r="C223" t="s">
+        <v>267</v>
+      </c>
+      <c r="D223" t="b">
+        <v>1</v>
+      </c>
+      <c r="E223" t="s">
+        <v>6</v>
+      </c>
+      <c r="F223" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>268</v>
+      </c>
+      <c r="C224" t="s">
+        <v>269</v>
+      </c>
+      <c r="D224" t="b">
+        <v>1</v>
+      </c>
+      <c r="E224" t="s">
+        <v>6</v>
+      </c>
+      <c r="F224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>268</v>
+      </c>
+      <c r="C225" t="s">
+        <v>270</v>
+      </c>
+      <c r="D225" t="b">
+        <v>0</v>
+      </c>
+      <c r="E225" t="s">
+        <v>6</v>
+      </c>
+      <c r="F225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>268</v>
+      </c>
+      <c r="C226" t="s">
+        <v>271</v>
+      </c>
+      <c r="D226" t="b">
+        <v>1</v>
+      </c>
+      <c r="E226" t="s">
+        <v>6</v>
+      </c>
+      <c r="F226" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>272</v>
+      </c>
+      <c r="C227" t="s">
+        <v>273</v>
+      </c>
+      <c r="D227" t="b">
+        <v>0</v>
+      </c>
+      <c r="E227" t="s">
+        <v>6</v>
+      </c>
+      <c r="F227" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>272</v>
+      </c>
+      <c r="C228" t="s">
+        <v>274</v>
+      </c>
+      <c r="D228" t="b">
+        <v>1</v>
+      </c>
+      <c r="E228" t="s">
+        <v>6</v>
+      </c>
+      <c r="F228" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>272</v>
+      </c>
+      <c r="C229" t="s">
+        <v>275</v>
+      </c>
+      <c r="D229" t="b">
+        <v>1</v>
+      </c>
+      <c r="E229" t="s">
+        <v>6</v>
+      </c>
+      <c r="F229" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>276</v>
+      </c>
+      <c r="C230" t="s">
+        <v>277</v>
+      </c>
+      <c r="D230" t="b">
+        <v>0</v>
+      </c>
+      <c r="E230" t="s">
+        <v>6</v>
+      </c>
+      <c r="F230" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>276</v>
+      </c>
+      <c r="C231" t="s">
+        <v>278</v>
+      </c>
+      <c r="D231" t="b">
+        <v>0</v>
+      </c>
+      <c r="E231" t="s">
+        <v>6</v>
+      </c>
+      <c r="F231" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>276</v>
+      </c>
+      <c r="C232" t="s">
+        <v>279</v>
+      </c>
+      <c r="D232" t="b">
+        <v>1</v>
+      </c>
+      <c r="E232" t="s">
+        <v>6</v>
+      </c>
+      <c r="F232" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>280</v>
+      </c>
+      <c r="C233" t="s">
+        <v>281</v>
+      </c>
+      <c r="D233" t="b">
+        <v>0</v>
+      </c>
+      <c r="E233" t="s">
+        <v>6</v>
+      </c>
+      <c r="F233" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>280</v>
+      </c>
+      <c r="C234" t="s">
+        <v>282</v>
+      </c>
+      <c r="D234" t="b">
+        <v>1</v>
+      </c>
+      <c r="E234" t="s">
+        <v>6</v>
+      </c>
+      <c r="F234" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>280</v>
+      </c>
+      <c r="C235" t="s">
+        <v>283</v>
+      </c>
+      <c r="D235" t="b">
+        <v>1</v>
+      </c>
+      <c r="E235" t="s">
+        <v>6</v>
+      </c>
+      <c r="F235" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>284</v>
+      </c>
+      <c r="C236" t="s">
+        <v>285</v>
+      </c>
+      <c r="D236" t="b">
+        <v>1</v>
+      </c>
+      <c r="E236" t="s">
+        <v>6</v>
+      </c>
+      <c r="F236" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>284</v>
+      </c>
+      <c r="C237" t="s">
+        <v>286</v>
+      </c>
+      <c r="D237" t="b">
+        <v>1</v>
+      </c>
+      <c r="E237" t="s">
+        <v>6</v>
+      </c>
+      <c r="F237" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>284</v>
+      </c>
+      <c r="C238" t="s">
+        <v>287</v>
+      </c>
+      <c r="D238" t="b">
+        <v>0</v>
+      </c>
+      <c r="E238" t="s">
+        <v>6</v>
+      </c>
+      <c r="F238" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>288</v>
+      </c>
+      <c r="C239" t="s">
+        <v>289</v>
+      </c>
+      <c r="D239" t="b">
+        <v>0</v>
+      </c>
+      <c r="E239" t="s">
+        <v>6</v>
+      </c>
+      <c r="F239" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>288</v>
+      </c>
+      <c r="C240" t="s">
+        <v>290</v>
+      </c>
+      <c r="D240" t="b">
+        <v>1</v>
+      </c>
+      <c r="E240" t="s">
+        <v>6</v>
+      </c>
+      <c r="F240" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>288</v>
+      </c>
+      <c r="C241" t="s">
+        <v>291</v>
+      </c>
+      <c r="D241" t="b">
+        <v>1</v>
+      </c>
+      <c r="E241" t="s">
+        <v>6</v>
+      </c>
+      <c r="F241" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>230</v>
+      </c>
+      <c r="C242" t="s">
+        <v>292</v>
+      </c>
+      <c r="D242" t="b">
+        <v>0</v>
+      </c>
+      <c r="E242" t="s">
+        <v>6</v>
+      </c>
+      <c r="F242" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>230</v>
+      </c>
+      <c r="C243" t="s">
+        <v>293</v>
+      </c>
+      <c r="D243" t="b">
+        <v>1</v>
+      </c>
+      <c r="E243" t="s">
+        <v>6</v>
+      </c>
+      <c r="F243" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>230</v>
+      </c>
+      <c r="C244" t="s">
+        <v>294</v>
+      </c>
+      <c r="D244" t="b">
+        <v>1</v>
+      </c>
+      <c r="E244" t="s">
+        <v>6</v>
+      </c>
+      <c r="F244" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>295</v>
+      </c>
+      <c r="C245" t="s">
+        <v>296</v>
+      </c>
+      <c r="D245" t="b">
+        <v>1</v>
+      </c>
+      <c r="E245" t="s">
+        <v>6</v>
+      </c>
+      <c r="F245" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>295</v>
+      </c>
+      <c r="C246" t="s">
+        <v>297</v>
+      </c>
+      <c r="D246" t="b">
+        <v>1</v>
+      </c>
+      <c r="E246" t="s">
+        <v>6</v>
+      </c>
+      <c r="F246" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>295</v>
+      </c>
+      <c r="C247" t="s">
+        <v>298</v>
+      </c>
+      <c r="D247" t="b">
+        <v>1</v>
+      </c>
+      <c r="E247" t="s">
+        <v>6</v>
+      </c>
+      <c r="F247" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>299</v>
+      </c>
+      <c r="C248" t="s">
+        <v>300</v>
+      </c>
+      <c r="D248" t="b">
+        <v>0</v>
+      </c>
+      <c r="E248" t="s">
+        <v>6</v>
+      </c>
+      <c r="F248" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>299</v>
+      </c>
+      <c r="C249" t="s">
+        <v>301</v>
+      </c>
+      <c r="D249" t="b">
+        <v>1</v>
+      </c>
+      <c r="E249" t="s">
+        <v>6</v>
+      </c>
+      <c r="F249" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>299</v>
+      </c>
+      <c r="C250" t="s">
+        <v>302</v>
+      </c>
+      <c r="D250" t="b">
+        <v>0</v>
+      </c>
+      <c r="E250" t="s">
+        <v>6</v>
+      </c>
+      <c r="F250" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>303</v>
+      </c>
+      <c r="C251" t="s">
+        <v>304</v>
+      </c>
+      <c r="D251" t="b">
+        <v>1</v>
+      </c>
+      <c r="E251" t="s">
+        <v>6</v>
+      </c>
+      <c r="F251" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>303</v>
+      </c>
+      <c r="C252" t="s">
+        <v>305</v>
+      </c>
+      <c r="D252" t="b">
+        <v>1</v>
+      </c>
+      <c r="E252" t="s">
+        <v>6</v>
+      </c>
+      <c r="F252" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>303</v>
+      </c>
+      <c r="C253" t="s">
+        <v>306</v>
+      </c>
+      <c r="D253" t="b">
+        <v>1</v>
+      </c>
+      <c r="E253" t="s">
+        <v>6</v>
+      </c>
+      <c r="F253" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>307</v>
+      </c>
+      <c r="C254" t="s">
+        <v>308</v>
+      </c>
+      <c r="D254" t="b">
+        <v>1</v>
+      </c>
+      <c r="E254" t="s">
+        <v>6</v>
+      </c>
+      <c r="F254" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>307</v>
+      </c>
+      <c r="C255" t="s">
+        <v>309</v>
+      </c>
+      <c r="D255" t="b">
+        <v>1</v>
+      </c>
+      <c r="E255" t="s">
+        <v>6</v>
+      </c>
+      <c r="F255" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>307</v>
+      </c>
+      <c r="C256" t="s">
+        <v>310</v>
+      </c>
+      <c r="D256" t="b">
+        <v>1</v>
+      </c>
+      <c r="E256" t="s">
+        <v>6</v>
+      </c>
+      <c r="F256" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>311</v>
+      </c>
+      <c r="C257" t="s">
+        <v>312</v>
+      </c>
+      <c r="D257" t="b">
+        <v>0</v>
+      </c>
+      <c r="E257" t="s">
+        <v>6</v>
+      </c>
+      <c r="F257" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>311</v>
+      </c>
+      <c r="C258" t="s">
+        <v>313</v>
+      </c>
+      <c r="D258" t="b">
+        <v>1</v>
+      </c>
+      <c r="E258" t="s">
+        <v>6</v>
+      </c>
+      <c r="F258" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>311</v>
+      </c>
+      <c r="C259" t="s">
+        <v>314</v>
+      </c>
+      <c r="D259" t="b">
+        <v>0</v>
+      </c>
+      <c r="E259" t="s">
+        <v>6</v>
+      </c>
+      <c r="F259" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>315</v>
+      </c>
+      <c r="C260" t="s">
+        <v>316</v>
+      </c>
+      <c r="D260" t="b">
+        <v>0</v>
+      </c>
+      <c r="E260" t="s">
+        <v>6</v>
+      </c>
+      <c r="F260" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>315</v>
+      </c>
+      <c r="C261" t="s">
+        <v>317</v>
+      </c>
+      <c r="D261" t="b">
+        <v>1</v>
+      </c>
+      <c r="E261" t="s">
+        <v>6</v>
+      </c>
+      <c r="F261" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>315</v>
+      </c>
+      <c r="C262" t="s">
+        <v>318</v>
+      </c>
+      <c r="D262" t="b">
+        <v>1</v>
+      </c>
+      <c r="E262" t="s">
+        <v>6</v>
+      </c>
+      <c r="F262" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>319</v>
+      </c>
+      <c r="C263" t="s">
+        <v>320</v>
+      </c>
+      <c r="D263" t="b">
+        <v>0</v>
+      </c>
+      <c r="E263" t="s">
+        <v>6</v>
+      </c>
+      <c r="F263" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>319</v>
+      </c>
+      <c r="C264" t="s">
+        <v>321</v>
+      </c>
+      <c r="D264" t="b">
+        <v>1</v>
+      </c>
+      <c r="E264" t="s">
+        <v>6</v>
+      </c>
+      <c r="F264" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>319</v>
+      </c>
+      <c r="C265" t="s">
+        <v>322</v>
+      </c>
+      <c r="D265" t="b">
+        <v>0</v>
+      </c>
+      <c r="E265" t="s">
+        <v>6</v>
+      </c>
+      <c r="F265" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>323</v>
+      </c>
+      <c r="C266" t="s">
+        <v>324</v>
+      </c>
+      <c r="D266" t="b">
+        <v>0</v>
+      </c>
+      <c r="E266" t="s">
+        <v>6</v>
+      </c>
+      <c r="F266" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>323</v>
+      </c>
+      <c r="C267" t="s">
+        <v>325</v>
+      </c>
+      <c r="D267" t="b">
+        <v>0</v>
+      </c>
+      <c r="E267" t="s">
+        <v>6</v>
+      </c>
+      <c r="F267" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>323</v>
+      </c>
+      <c r="C268" t="s">
+        <v>326</v>
+      </c>
+      <c r="D268" t="b">
+        <v>1</v>
+      </c>
+      <c r="E268" t="s">
+        <v>6</v>
+      </c>
+      <c r="F268" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>327</v>
+      </c>
+      <c r="C269" t="s">
+        <v>328</v>
+      </c>
+      <c r="D269" t="b">
+        <v>1</v>
+      </c>
+      <c r="E269" t="s">
+        <v>6</v>
+      </c>
+      <c r="F269" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>327</v>
+      </c>
+      <c r="C270" t="s">
+        <v>329</v>
+      </c>
+      <c r="D270" t="b">
+        <v>0</v>
+      </c>
+      <c r="E270" t="s">
+        <v>6</v>
+      </c>
+      <c r="F270" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>327</v>
+      </c>
+      <c r="C271" t="s">
+        <v>330</v>
+      </c>
+      <c r="D271" t="b">
+        <v>0</v>
+      </c>
+      <c r="E271" t="s">
+        <v>6</v>
+      </c>
+      <c r="F271" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>331</v>
+      </c>
+      <c r="C272" t="s">
+        <v>332</v>
+      </c>
+      <c r="D272" t="b">
+        <v>1</v>
+      </c>
+      <c r="E272" t="s">
+        <v>6</v>
+      </c>
+      <c r="F272" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>331</v>
+      </c>
+      <c r="C273" t="s">
+        <v>333</v>
+      </c>
+      <c r="D273" t="b">
+        <v>0</v>
+      </c>
+      <c r="E273" t="s">
+        <v>6</v>
+      </c>
+      <c r="F273" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>331</v>
+      </c>
+      <c r="C274" t="s">
+        <v>334</v>
+      </c>
+      <c r="D274" t="b">
+        <v>1</v>
+      </c>
+      <c r="E274" t="s">
+        <v>6</v>
+      </c>
+      <c r="F274" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>335</v>
+      </c>
+      <c r="C275" t="s">
+        <v>336</v>
+      </c>
+      <c r="D275" t="b">
+        <v>1</v>
+      </c>
+      <c r="E275" t="s">
+        <v>6</v>
+      </c>
+      <c r="F275" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>335</v>
+      </c>
+      <c r="C276" t="s">
+        <v>337</v>
+      </c>
+      <c r="D276" t="b">
+        <v>1</v>
+      </c>
+      <c r="E276" t="s">
+        <v>6</v>
+      </c>
+      <c r="F276" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="1">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>335</v>
+      </c>
+      <c r="C277" t="s">
+        <v>338</v>
+      </c>
+      <c r="D277" t="b">
+        <v>0</v>
+      </c>
+      <c r="E277" t="s">
+        <v>6</v>
+      </c>
+      <c r="F277" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Physiopathologie/Excel/cardiaque.xlsx
+++ b/Physiopathologie/Excel/cardiaque.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Physiopathologie\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2413F58D-FC8C-49A1-8A63-566636C6453D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE3147D-C984-4DE4-8392-EC4C6C9DD3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="408">
   <si>
     <t>Numero</t>
   </si>
@@ -251,9 +251,6 @@
     <t xml:space="preserve">28. Concernant l'activité électrique du cœur:  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lorsque le complexe QRS est positif en a VF et égal à 0 en D_L l'axe du cœur est à +90°    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La dépolarisation auriculaire et ventriculaire progresse de l’endocarde vers l’épicarde,    </t>
   </si>
   <si>
@@ -287,9 +284,6 @@
     <t xml:space="preserve">6. Concernant la pression artérielle: </t>
   </si>
   <si>
-    <t xml:space="preserve"> La mesure de la pression moyenne (PA,,,) n'est pas réalisée en routine et peut être estimée par la relation: PAwoy — PA; Lu 1/3(PAsys: - PAuinst)   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La pression pulsée diminue avec l'âge.    </t>
   </si>
   <si>
@@ -302,12 +296,6 @@
     <t xml:space="preserve"> La vitesse (v) du sang varie selon la relation: v = S/Q où Q est le débit sanguin et S est la surface de section du vaisseau.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> La compliance, en em°.mmHg” , est un index de distension de la paroi du vaisseau et représente la variation  de volume du vaisseau induite par une variation de pression transmurale qui s’y applique.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque la loi de Laplace s'applique au ventricule, l'augmentation d'épaisseur de la paroi ventriculaire augmente la contrainte &amp; qui s'exerce au niveau de la paroi et qui s'exprime en dynes.cm*    </t>
-  </si>
-  <si>
     <t xml:space="preserve">4. Concernant l'activité électrique du cœur: </t>
   </si>
   <si>
@@ -320,27 +308,12 @@
     <t xml:space="preserve"> La vitesse de conduction est accélérée au niveau du nœud auriculo-ventriculaire où elle est de 0,05 m/sec.    </t>
   </si>
   <si>
-    <t xml:space="preserve">17. Concernant l'hydratation du LEC: </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selon la cause, les états d’hyperhydratation du LEC peuvent s'accompagner d'hypertension artérielle ou d'hypotension artérielle.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lors d'une déshydratation du LEC, l'osmolalité plasmatique et la natrémie sont normales sauf si il existe un  trouble associé de la balance de l'eau.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">14. Concernant la pompe cardiaque: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Pour une fréquence cardiaque de 75 battements/mun, le cycle cardiaque a une durée de 800 msec   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La loi de Frank-Starling est une propriété intrinsèque du myocarde qui ajuste le volume d’éjection systolique  au retour veineux.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Sur la courbe PV_A  la systole est la phase d'éjection ventriculaire.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">12. Concernant le système circulatoire: </t>
   </si>
   <si>
@@ -386,18 +359,12 @@
     <t xml:space="preserve"> Le volume d'éjection systolique dépend de la précharge, de la postcharge et de la contractilité.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le volume télésystolique est le volume de sang résiduel au niveau du ventricule après la systole: 1l est de l'ordre de 50 ml dans les conditions normales.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> lorsque l'écoulement est laminaire, le débit est multiplié par 8 lorsque le rayon est multiplié par 2. </t>
   </si>
   <si>
     <t xml:space="preserve"> la vitesse du courant sanguin est la plus élevée au niveau du réseau artériel (+0,5m/s) où la surface de section est plus basse.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> la compliance s'exprime en em°/mmHg. </t>
-  </si>
-  <si>
     <t xml:space="preserve">29. Concernant l'activité électrique cardiaque: </t>
   </si>
   <si>
@@ -419,18 +386,9 @@
     <t xml:space="preserve"> Le débit sanguin est inversement proportionnel à la 4° puissance du rayon du tube selon la loi de Poiseuille-  Hagen.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Les artères et les veines ont une innervation orthosympathique de type &amp;,-adrénergique.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">23. Concernant la pompe cardiaque: </t>
   </si>
   <si>
-    <t xml:space="preserve"> La précharge est la contrainte &amp; (définie selon Laplace) qui s'exerce sur la paroi du ventricule en fin de diastole.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La noradrénaline augmente la contractilité de la fibre musculaire cardiaque en déplaçant la courbe de tension  isométrique maximale vers le haut et la gauche.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Si le débit cardiaque est de 6,4 litres par minute et la fréquence cardiaque est de 80 battements par minute, le VES est de 80 ml par minute.    </t>
   </si>
   <si>
@@ -443,15 +401,9 @@
     <t xml:space="preserve"> Les barorécepteurs du système vasculaire à haute pression ont une activité permanente ou tonique.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lorsque la pression artérielle systolique = 120 mm Hg et la pression artérielle diastolique = 90 mm Hg, la pression artérielle moyenne calculée est de 105 mm Hg.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">20. Concernant le système veineux: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le retour veineux est le débit de sang provenant du compartiment veineux périphérique et qui entre dans le compartiment veineux central, selon la relation: Q = (PVP — PVCYR   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La pression veineuse centrale augmente lorsque la compliance veineuse augmente.    </t>
   </si>
   <si>
@@ -461,9 +413,6 @@
     <t xml:space="preserve">Q1. Concernant l'activité électrique cardiaque: </t>
   </si>
   <si>
-    <t xml:space="preserve"> La phase 0 du potentiel d'action des cellules sinusales est hée à l'activation transitoire du canal Na, rapide.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La période réfractaire absolue au niveau du cardiomyocyte a une durée longue et équivalente à celle de la contraction musculaire, ce qui évite le tétanos cardiaque.    </t>
   </si>
   <si>
@@ -500,9 +449,6 @@
     <t xml:space="preserve"> la contractilité représente la force de contraction des fibres musculaires et dépend de la précharge et de la postcharge  </t>
   </si>
   <si>
-    <t xml:space="preserve"> la précharge est assimilée au volume télédiastolique du ventricule et dépend essentiellement du retour VEINEUXx.  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> l'effet inotrope de Sarnoff indique, qu'à un volume télédiastolique donné, le volume d’éjection systolique augmente lorsque la contractilité augmente.  </t>
   </si>
   <si>
@@ -542,9 +488,6 @@
     <t xml:space="preserve"> La tension active développée par le muscle papillaire cardiaque isolé dépend de sa longueur de repos.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lorsque la contractilité augmente, V_A ,,, augmente de même que la tension isométrique maximale à une longueur donnée.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Une variation de la contractilité n'implique pas toujours un déplacement de la courbe de tension isométrique maximale.    </t>
   </si>
   <si>
@@ -563,12 +506,6 @@
     <t xml:space="preserve">Q20. Concernant l'hémodynamique: </t>
   </si>
   <si>
-    <t xml:space="preserve"> La compliance est égale au rapport (AP/AV) où AV est la variation de volume (em”}) et AP est la variation de pression (mmHg)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque la loi de Laplace s'applique au ventricule, l'augmentation du rayon du ventricule diminue la contrainte  o qui s'exerce au niveau de la paroi et qui s'exprime en dynes.cm*    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Selon la relation de Poiseuille-Hagen, le débit sanguin est proportionnel à la longueur du vaisseau.     </t>
   </si>
   <si>
@@ -590,9 +527,6 @@
     <t xml:space="preserve"> La précharge est assimilée au volume du ventricule en fin de diastole et dépend du retour veineux.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lorsque la fréquence cardiaque est de 100 battements par minute et le volume d'éjection systolique est de 80 ml/battement, le débit cardiaque est de SL par minute,    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La loi de Frank-Starling, ou régulation homéométrique, permet l'adaptation du volume d'éjection systolique au niveau de remplissage ventriculaire de manière automatique et instantanée pour assurer un débit cardiaque approprié.    </t>
   </si>
   <si>
@@ -611,12 +545,6 @@
     <t xml:space="preserve">Q8. Concernant l'hémodynamique:  </t>
   </si>
   <si>
-    <t xml:space="preserve">. La compliance est un index de distension de la paroi du vaisseau, exprimé selon la relation: Ç = AP/ AV    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Lorsque la loi de Laplace s'applique au ventricule, l'augmentation de la paroi ventriculaire permet de réduire la  contrainte o qui s'exerce au niveau de la paroi et qui s'exprime en dynes.cm*   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Le rayon des vaisseaux est le principal déterminant du débit sanguin.    </t>
   </si>
   <si>
@@ -659,12 +587,6 @@
     <t xml:space="preserve">Q27. Concernant la pression artérielle: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lorsque la PA... = 116 mmHg et PA. = 80 mmHg, la PA moyenne est égale à 92 mmHg    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La pression artérielle pulsée diminue lorsque l'individu devient plus âgé.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lors d'un exercice physique, la pression artérielle moyenne reste relativement stable dans la mesure où le débit cardiaque augmente et les résistances vasculaires périphériques diminuent.    </t>
   </si>
   <si>
@@ -719,15 +641,9 @@
     <t xml:space="preserve">Q14. Concernant la pression artérielle:  </t>
   </si>
   <si>
-    <t xml:space="preserve"> La pression pulsée augmente lorsque la compliance aortique augmente.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lors du passage de la position assise à la station debout, la régulation de la PA moyenne s'opère  immédiatement, par l’activité des barorécepteurs du système vasculaire à haute pression.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lorsque la PA,,, = 120 mmHg et la PAsss = 75 mmHg, la PA moyenne calculée est égale à 90 mmHg     </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q16. Concernant la pompe cardiaque: </t>
   </si>
   <si>
@@ -755,9 +671,6 @@
     <t xml:space="preserve">Q8. Concernant la pression artérielle: </t>
   </si>
   <si>
-    <t xml:space="preserve"> La résistance totale périphérique (RTP) qui s'exprime en [{mmHg.min/L] peut être calculée d'après la formule: RTP = PA,,,/DC   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lorsque la pression artérielle moyenne augmente, la fréquence de décharge des barorécepteurs de la paroi du  sinus carotidien et de l’arc aortique diminue.   </t>
   </si>
   <si>
@@ -770,30 +683,18 @@
     <t xml:space="preserve"> L'onde P de l'ECG représente la repolarisation auriculaire.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lorsque le complexe QRS est positif en DIIT et égal à 0 en aVR, l'axe du coeur est à 120°, ce qui correspond à une déviation axiale droite.    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> L'onde T positive d'un ECG normal est liée à la repolarisation ventriculaire qui progresse de l'épicarde vers l'endocarde.    </t>
   </si>
   <si>
     <t xml:space="preserve">Q5. Concernant l'hémodynamique: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Selon la loi de Laplace, la tension qui s'exerce au niveau de la paroi d'une structure creuse est inversement proportionnelle à la pression qui y règne et à son rayon.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La vitesse du courant sanguin est la plus élevée au niveau du réseau artériel où la surface de section est la plus    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Selon la relation de Poiseuille-Hagen, lors d'une vasoconstriction qui réduit le rayon d'un vaisseau de moitié, le débit sanguin diminue de 8 fois.    </t>
   </si>
   <si>
     <t xml:space="preserve">Q14. Concernant le système veineux:  </t>
   </si>
   <si>
-    <t xml:space="preserve"> La compliance des veines périphérique est +25 fois supérieure à la compliance des veines centrales.     </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Lors de l'exercice, le retour veineux est notamment favorisé par l'augmentation de la pompe respiratoire.     </t>
   </si>
   <si>
@@ -815,27 +716,9 @@
     <t xml:space="preserve"> A chaque longueur d'une fibre musculaire cardiaque, la tension isométrique maximale qu'elle peut exercer  représente la somme de sa tension de repos et de sa tension active.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Au niveau de la fibre musculaire cardiaque, la noradrénaline augmente V_A ,.,, mais sans modifier la tension isométrique maximale,    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q22. Concernant l'homéostasie acide-base: </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selon l'équation de Kassirer-Bleich, lorsque PCO2 = 27 mmHg et [HCO2] = 9 mEg/L, [H°] = 72 nM   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chez un individu normal et ayant un régime occidental, une sécrétion tubulaire de 70 mEg/j de H° est nécessaire pour assurer la réabsorption du HCO2 filtré quotidiennement.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'excrétion urinaire nette et quotidienne de H° = acidité titrable + ammonium — excrétion résiduelle de HCO2 (l'acidité titrable, l'ammonium et le HCO2 étant mesurés sur les urines de 24h)    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q21. Concernant le système veineux: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le réseau veineux périphérique est un réseau capacitif qui contient +35 à 40% du sang.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Le compartiment veineux central est situé entre le compartiment veineux périphérique et le ventricule droit.     </t>
   </si>
   <si>
@@ -1055,9 +938,6 @@
     <t xml:space="preserve"> Précharge, postcharge et contractilité sont liées. Par exemple, une augmentation de la postcharge mène immédiatement à une augmentation de la précharge qui est suffisante pour corriger le volume d'éjection systolique.    </t>
   </si>
   <si>
-    <t>Certains états d'hyperhydratation du LEC peuvent s'accompagner de diminution de volume circulant effectif et de signes d'hypovolémie</t>
-  </si>
-  <si>
     <t>La pression artériel pulsée est proportionnelle au VES et à la compliance aortique</t>
   </si>
   <si>
@@ -1152,6 +1032,234 @@
   </si>
   <si>
     <t>Il est de l'ordre de 50-60mL (Le volume à la fin de la diastole (volume télédiastolique) est de 120-130mL, or le volume d'éjection systolique est de 70mL donc à la fin de la systole, on est à 130-70 = 60mL)</t>
+  </si>
+  <si>
+    <t>/!\ à ne pas confondre courbe de tension isométrique et courbe relation force-vitesse</t>
+  </si>
+  <si>
+    <t>C'est dépendant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le complexe QRS est positif en aVF et égal à 0 en D1 l'axe du cœur est à +90°    </t>
+  </si>
+  <si>
+    <t>C'est logique, si la pression veineuse à la fin diminue, le sang va plus facilement revenir</t>
+  </si>
+  <si>
+    <t>entre les veines cave et l'oreillette droite</t>
+  </si>
+  <si>
+    <t>Compliance faible</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La mesure de la pression moyenne (PAmoy) n'est pas réalisée en routine et peut être estimée par la relation: PAmoy = Pasyst + 1/3(PAsyst - PAdiast)   </t>
+  </si>
+  <si>
+    <t>elle augmente avec l'age (la difference entre pression syst et diast augmente)</t>
+  </si>
+  <si>
+    <t>assure la régulation de la pression moyenne</t>
+  </si>
+  <si>
+    <t>Q = v.S donc v = Q/S</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La compliance, en cm^3.mmHg^-1 , est un index de distension de la paroi du vaisseau et représente la variation  de volume du vaisseau induite par une variation de pression transmurale qui s’y applique.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la loi de Laplace s'applique au ventricule, l'augmentation d'épaisseur de la paroi ventriculaire augmente la contrainte sigma qui s'exerce au niveau de la paroi et qui s'exprime en dynes.cm^-2</t>
+  </si>
+  <si>
+    <t>inversement proportionnellement donc l'epaisseur fait diminuer la contrainte sigma</t>
+  </si>
+  <si>
+    <t>La fourberie tah la famille des Thénardiers, l'erreur ici c'est que c'est censé être un "et" au lieu d'un "ou"</t>
+  </si>
+  <si>
+    <t>Il y a une phase 0 mais pas de phase de plateau</t>
+  </si>
+  <si>
+    <t>Elle est ralentie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pour une fréquence cardiaque de 75 battements/min, le cycle cardiaque a une durée de 800 msec   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sur la courbe PV,  la systole est la phase d'éjection ventriculaire.    </t>
+  </si>
+  <si>
+    <t>C'est aussi la phase de contraction isométrique</t>
+  </si>
+  <si>
+    <t>c'est inférieur à 2000</t>
+  </si>
+  <si>
+    <t>vers le haut et la droite</t>
+  </si>
+  <si>
+    <t>bam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le volume télésystolique est le volume de sang résiduel au niveau du ventricule après la systole: il est de l'ordre de 50 ml dans les conditions normales.    </t>
+  </si>
+  <si>
+    <t>Le débit est proportionnelle a la puissance 4 du rayon donc si le rayon double, le débit est multiplié par 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la compliance s'exprime en cm^3/mmHg. </t>
+  </si>
+  <si>
+    <t>Il faut voir la surface totale et non la surface de chaque vaisseau car il y en a énormément du coup ça divise car ils sont en parallèle et non en série. Par contre le 0,5m/s il a fumé</t>
+  </si>
+  <si>
+    <t>mL = cm^3</t>
+  </si>
+  <si>
+    <t>Il va atteindre le seuil de dépolarisation</t>
+  </si>
+  <si>
+    <t>proportionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les artères et les veines ont une innervation orthosympathique de type alpha1-adrénergique.    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La précharge est la contrainte sigma (définie selon Laplace) qui s'exerce sur la paroi du ventricule en fin de diastole.   </t>
+  </si>
+  <si>
+    <t>C'est juste 80mL (ou mL par battement pour être exact) et non 80mL par minute</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le retour veineux est le débit de sang provenant du compartiment veineux périphérique et qui entre dans le compartiment veineux central, selon la relation: Q = (PVP - PVC)/R   </t>
+  </si>
+  <si>
+    <t>Veines centrale 25fois moins compliant que veines périphériques</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La phase 0 du potentiel d'action des cellules sinusales est liée à l'activation transitoire du canal Na, rapide.   </t>
+  </si>
+  <si>
+    <t>C'est pour les cardiomyocytes que c'est vrai</t>
+  </si>
+  <si>
+    <t>C'est chez l'individu agé</t>
+  </si>
+  <si>
+    <t>que l'elastance est élevée</t>
+  </si>
+  <si>
+    <t>180 bpm</t>
+  </si>
+  <si>
+    <t>c'est indépendant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> la précharge est assimilée au volume télédiastolique du ventricule et dépend essentiellement du retour VEINEUX.  </t>
+  </si>
+  <si>
+    <t>C'est le système nerveux autonome</t>
+  </si>
+  <si>
+    <t>elle augmente en position allongée, c'est logique puisque la PVC c'est la pression finale apres que le sang a fait toute la circulation, normalement elle est basse parce que le sang perd toute sa pression en essayant de remonter et de vaincre la gravité, mais quand on est allongée, il n'y a plus la contrainte de gravité donc on ne perd plus autant de pression veineuse, et donc la PVC va monter</t>
+  </si>
+  <si>
+    <t>dimine lors de l'expiration</t>
+  </si>
+  <si>
+    <t>La compliance diminue (parce que ça devient trop tendu)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la contractilité augmente, Vmax augmente de même que la tension isométrique maximale à une longueur donnée.    </t>
+  </si>
+  <si>
+    <t>ça implique toujours</t>
+  </si>
+  <si>
+    <t>Elle peut ne pas changer</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La compliance est égale au rapport (DeltaP/DeltaV) où DeltaV est la variation de volume (cm^3) et DeltaP est la variation de pression (mmHg)   </t>
+  </si>
+  <si>
+    <t>C'est l'inverse, la formule ici représente l'elastance et non la compliance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la loi de Laplace s'applique au ventricule, l'augmentation du rayon du ventricule diminue la contrainte  sigma qui s'exerce au niveau de la paroi et qui s'exprime en dynes.cm^-2</t>
+  </si>
+  <si>
+    <t>ça augmente</t>
+  </si>
+  <si>
+    <t>flm de fr le dessin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la fréquence cardiaque est de 100 battements par minute et le volume d'éjection systolique est de 80 ml/battement, le débit cardiaque est de 8L par minute,    </t>
+  </si>
+  <si>
+    <t>C'est la régulation hétérométrique et non homéométrique</t>
+  </si>
+  <si>
+    <t>:)</t>
+  </si>
+  <si>
+    <t>C'est proportionnelle à la puissance 4 du rayon, tkt pas que c lui qui décide</t>
+  </si>
+  <si>
+    <t>C'est l'insuffisance cardiaque gauche qui va provoquer l'oedeme pulmonaire. En gros, le fait qu'il y ait une insuffisance cardiaque gauche signifie que le ventricule n'arrive pas à bien se vider (systolique) ou alors que l'oreillette n'arrive pas à bien se vider pour remplir le ventricule (diastolique). Dans tous les cas, il y aura une accumulation  de sang au niveau du coeur gauche, donc la pression va augmenter à ce niveau là. Pour compenser ça, la pression va augmenter en amont, d'abord dans la veine pulmonaire puis dans les capillaires pulmonaires. Or si la pression des capillaires pulmonaire augmente, alors il y aura un oedeme psk le sang va commencer à fuiter à travers la paroi des capillaires psk il y a trop de pression. Dans le cas de l'insuffisance cardiaque droite, l'oedeme sera au niveau des organes</t>
+  </si>
+  <si>
+    <t>stenose aortique = retrecissement de la valve aortique-&gt; augmentation de la pression en amont donc dans le ventricule gauche psk le sang a du mal a passer -&gt; augmentation de la postcharge</t>
+  </si>
+  <si>
+    <t>Ils inhibent la phase 0</t>
+  </si>
+  <si>
+    <t>le nœud sinusal est à droite du nœud atrioventriculaire, donc innervé par la droite et l'autre par la gauche</t>
+  </si>
+  <si>
+    <t>Ils sont tout les deux divisés de moitié mais vu que y en a un plus long que l'autre, il va prendre plus tarif</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la PAsyst = 116 mmHg et PAdiast = 80 mmHg, la PA moyenne est égale à 92 mmHg </t>
+  </si>
+  <si>
+    <t>C'est le volume d'ejection systolique</t>
+  </si>
+  <si>
+    <t>les deux valves sont fermées</t>
+  </si>
+  <si>
+    <t>C'est la courbe de tension isometrique et non la courbe de repos</t>
+  </si>
+  <si>
+    <t>Que dans le ventricule droit car en amont de l'embolie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La résistance totale périphérique (RTP) qui s'exprime en [mmHg.min/L] peut être calculée d'après la formule: RTP = PAmoy/DC   </t>
+  </si>
+  <si>
+    <t>la fréquence augmente</t>
+  </si>
+  <si>
+    <t>C'est la dépolarisation auriculaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque le complexe QRS est positif en DIII et égal à 0 en aVR, l'axe du coeur est à 120°, ce qui correspond à une déviation axiale droite.    </t>
+  </si>
+  <si>
+    <t>bien joué (si tu t'es trompé ptdr nan gros t'abuses c'est la 4eme fois qd meme)</t>
+  </si>
+  <si>
+    <t>reduit 16 fois (2^4 = 16)</t>
+  </si>
+  <si>
+    <t>Elle n'est pas mesurée en routine clinique</t>
+  </si>
+  <si>
+    <t>que par l'activité des barorecpteurs à haute pression</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Au niveau de la fibre musculaire cardiaque, la noradrénaline augmente Vmax mais sans modifier la tension isométrique maximale,    </t>
   </si>
 </sst>
 </file>
@@ -1556,10 +1664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
-  <dimension ref="A1:F277"/>
+  <dimension ref="A1:F260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="C186" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -1663,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1677,7 +1785,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1703,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -1723,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -1783,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -1817,7 +1925,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1863,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -1883,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -1903,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
@@ -1963,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
@@ -2043,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
@@ -2063,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -2083,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F26" t="s">
         <v>6</v>
@@ -2183,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="F31" t="s">
         <v>6</v>
@@ -2223,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="F33" t="s">
         <v>6</v>
@@ -2257,13 +2365,13 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="F35" t="s">
         <v>6</v>
@@ -2343,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
@@ -2403,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="F42" t="s">
         <v>6</v>
@@ -2443,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
@@ -2523,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="F48" t="s">
         <v>6</v>
@@ -2543,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -2583,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="F51" t="s">
         <v>6</v>
@@ -2597,13 +2705,13 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="F52" t="s">
         <v>6</v>
@@ -2677,13 +2785,13 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="F56" t="s">
         <v>6</v>
@@ -2763,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="F60" t="s">
         <v>6</v>
@@ -2803,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="F62" t="s">
         <v>6</v>
@@ -2863,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>6</v>
+        <v>332</v>
       </c>
       <c r="F65" t="s">
         <v>6</v>
@@ -2883,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>333</v>
       </c>
       <c r="F66" t="s">
         <v>6</v>
@@ -2917,7 +3025,7 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>334</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
@@ -2937,7 +3045,7 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
@@ -2957,7 +3065,7 @@
         <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
@@ -2974,10 +3082,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
         <v>74</v>
-      </c>
-      <c r="C71" t="s">
-        <v>75</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -2994,10 +3102,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D72" t="b">
         <v>1</v>
@@ -3014,10 +3122,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
@@ -3034,16 +3142,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
         <v>78</v>
       </c>
-      <c r="C74" t="s">
-        <v>79</v>
-      </c>
       <c r="D74" t="b">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>6</v>
+        <v>335</v>
       </c>
       <c r="F74" t="s">
         <v>6</v>
@@ -3054,16 +3162,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>6</v>
+        <v>336</v>
       </c>
       <c r="F75" t="s">
         <v>6</v>
@@ -3074,16 +3182,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D76" t="b">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>6</v>
+        <v>337</v>
       </c>
       <c r="F76" t="s">
         <v>6</v>
@@ -3094,10 +3202,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>83</v>
+        <v>338</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -3114,16 +3222,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78" t="s">
         <v>82</v>
       </c>
-      <c r="C78" t="s">
-        <v>84</v>
-      </c>
       <c r="D78" t="b">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>6</v>
+        <v>339</v>
       </c>
       <c r="F78" t="s">
         <v>6</v>
@@ -3134,16 +3242,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>6</v>
+        <v>340</v>
       </c>
       <c r="F79" t="s">
         <v>6</v>
@@ -3154,16 +3262,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>6</v>
+        <v>341</v>
       </c>
       <c r="F80" t="s">
         <v>6</v>
@@ -3174,10 +3282,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>88</v>
+        <v>342</v>
       </c>
       <c r="D81" t="b">
         <v>1</v>
@@ -3194,16 +3302,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>89</v>
+        <v>343</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>6</v>
+        <v>344</v>
       </c>
       <c r="F82" t="s">
         <v>6</v>
@@ -3214,16 +3322,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>6</v>
+        <v>345</v>
       </c>
       <c r="F83" t="s">
         <v>6</v>
@@ -3234,16 +3342,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C84" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>6</v>
+        <v>346</v>
       </c>
       <c r="F84" t="s">
         <v>6</v>
@@ -3254,16 +3362,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>6</v>
+        <v>347</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
@@ -3271,13 +3379,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>95</v>
+        <v>348</v>
       </c>
       <c r="D86" t="b">
         <v>1</v>
@@ -3291,13 +3399,13 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C87" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D87" t="b">
         <v>1</v>
@@ -3311,19 +3419,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="D88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>6</v>
+        <v>350</v>
       </c>
       <c r="F88" t="s">
         <v>6</v>
@@ -3331,13 +3439,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C89" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D89" t="b">
         <v>1</v>
@@ -3351,13 +3459,13 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D90" t="b">
         <v>1</v>
@@ -3371,19 +3479,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>6</v>
+        <v>351</v>
       </c>
       <c r="F91" t="s">
         <v>6</v>
@@ -3391,13 +3499,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D92" t="b">
         <v>1</v>
@@ -3411,13 +3519,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
@@ -3431,19 +3539,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>6</v>
+        <v>352</v>
       </c>
       <c r="F94" t="s">
         <v>6</v>
@@ -3451,13 +3559,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D95" t="b">
         <v>1</v>
@@ -3471,16 +3579,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="s">
         <v>6</v>
@@ -3491,16 +3599,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="s">
         <v>6</v>
@@ -3511,19 +3619,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C98" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>6</v>
+        <v>353</v>
       </c>
       <c r="F98" t="s">
         <v>6</v>
@@ -3531,16 +3639,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="s">
         <v>6</v>
@@ -3551,13 +3659,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>112</v>
+        <v>354</v>
       </c>
       <c r="D100" t="b">
         <v>1</v>
@@ -3571,19 +3679,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>6</v>
+        <v>355</v>
       </c>
       <c r="F101" t="s">
         <v>6</v>
@@ -3591,19 +3699,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D102" t="b">
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>6</v>
+        <v>357</v>
       </c>
       <c r="F102" t="s">
         <v>6</v>
@@ -3611,19 +3719,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>116</v>
+        <v>356</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>6</v>
+        <v>358</v>
       </c>
       <c r="F103" t="s">
         <v>6</v>
@@ -3631,19 +3739,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="C104" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>6</v>
+        <v>359</v>
       </c>
       <c r="F104" t="s">
         <v>6</v>
@@ -3651,13 +3759,13 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B105" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="C105" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D105" t="b">
         <v>1</v>
@@ -3671,13 +3779,13 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
@@ -3691,13 +3799,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B107" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C107" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
@@ -3711,19 +3819,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C108" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>6</v>
+        <v>360</v>
       </c>
       <c r="F108" t="s">
         <v>6</v>
@@ -3731,13 +3839,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B109" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C109" t="s">
-        <v>123</v>
+        <v>361</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
@@ -3751,16 +3859,16 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C110" t="s">
-        <v>125</v>
+        <v>362</v>
       </c>
       <c r="D110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="s">
         <v>6</v>
@@ -3771,19 +3879,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C111" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>6</v>
+        <v>363</v>
       </c>
       <c r="F111" t="s">
         <v>6</v>
@@ -3791,13 +3899,13 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C112" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D112" t="b">
         <v>1</v>
@@ -3811,13 +3919,13 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C113" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D113" t="b">
         <v>1</v>
@@ -3831,13 +3939,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B114" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C114" t="s">
-        <v>130</v>
+        <v>364</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
@@ -3851,13 +3959,13 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B115" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C115" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
@@ -3871,19 +3979,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B116" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C116" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="D116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>6</v>
+        <v>365</v>
       </c>
       <c r="F116" t="s">
         <v>6</v>
@@ -3891,19 +3999,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B117" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>134</v>
+        <v>366</v>
       </c>
       <c r="D117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>6</v>
+        <v>367</v>
       </c>
       <c r="F117" t="s">
         <v>6</v>
@@ -3911,16 +4019,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B118" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C118" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="s">
         <v>6</v>
@@ -3931,13 +4039,13 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B119" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C119" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D119" t="b">
         <v>1</v>
@@ -3951,16 +4059,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B120" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120" t="s">
         <v>6</v>
@@ -3971,16 +4079,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B121" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" t="s">
         <v>6</v>
@@ -3991,16 +4099,16 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B122" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="s">
         <v>6</v>
@@ -4011,13 +4119,13 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B123" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D123" t="b">
         <v>1</v>
@@ -4031,13 +4139,13 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B124" t="s">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D124" t="b">
         <v>1</v>
@@ -4051,19 +4159,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>6</v>
+        <v>368</v>
       </c>
       <c r="F125" t="s">
         <v>6</v>
@@ -4071,19 +4179,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>6</v>
+        <v>369</v>
       </c>
       <c r="F126" t="s">
         <v>6</v>
@@ -4091,13 +4199,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D127" t="b">
         <v>1</v>
@@ -4111,19 +4219,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>6</v>
+        <v>370</v>
       </c>
       <c r="F128" t="s">
         <v>6</v>
@@ -4131,19 +4239,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>6</v>
+        <v>371</v>
       </c>
       <c r="F129" t="s">
         <v>6</v>
@@ -4151,16 +4259,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>149</v>
+        <v>372</v>
       </c>
       <c r="D130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="s">
         <v>6</v>
@@ -4169,18 +4277,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="D131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" t="s">
         <v>6</v>
@@ -4191,13 +4299,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D132" t="b">
         <v>1</v>
@@ -4211,13 +4319,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D133" t="b">
         <v>0</v>
@@ -4231,16 +4339,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="s">
         <v>6</v>
@@ -4251,33 +4359,33 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>6</v>
+        <v>373</v>
       </c>
       <c r="F135" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D136" t="b">
         <v>1</v>
@@ -4291,19 +4399,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="D137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>6</v>
+        <v>330</v>
       </c>
       <c r="F137" t="s">
         <v>6</v>
@@ -4311,19 +4419,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="C138" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>6</v>
+        <v>374</v>
       </c>
       <c r="F138" t="s">
         <v>6</v>
@@ -4331,19 +4439,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="C139" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>6</v>
+        <v>375</v>
       </c>
       <c r="F139" t="s">
         <v>6</v>
@@ -4351,19 +4459,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="C140" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>6</v>
+        <v>376</v>
       </c>
       <c r="F140" t="s">
         <v>6</v>
@@ -4371,16 +4479,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="C141" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E141" t="s">
         <v>6</v>
@@ -4391,16 +4499,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>148</v>
       </c>
       <c r="C142" t="s">
-        <v>161</v>
+        <v>377</v>
       </c>
       <c r="D142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E142" t="s">
         <v>6</v>
@@ -4411,19 +4519,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B143" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="C143" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D143" t="b">
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>6</v>
+        <v>378</v>
       </c>
       <c r="F143" t="s">
         <v>6</v>
@@ -4431,16 +4539,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B144" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C144" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E144" t="s">
         <v>6</v>
@@ -4451,19 +4559,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B145" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C145" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>6</v>
+        <v>379</v>
       </c>
       <c r="F145" t="s">
         <v>6</v>
@@ -4471,13 +4579,13 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B146" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C146" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D146" t="b">
         <v>1</v>
@@ -4491,19 +4599,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B147" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C147" t="s">
-        <v>168</v>
+        <v>380</v>
       </c>
       <c r="D147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>6</v>
+        <v>381</v>
       </c>
       <c r="F147" t="s">
         <v>6</v>
@@ -4511,19 +4619,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B148" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C148" t="s">
-        <v>169</v>
+        <v>382</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>6</v>
+        <v>383</v>
       </c>
       <c r="F148" t="s">
         <v>6</v>
@@ -4531,16 +4639,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B149" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C149" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="D149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E149" t="s">
         <v>6</v>
@@ -4551,19 +4659,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B150" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C150" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>6</v>
+        <v>384</v>
       </c>
       <c r="F150" t="s">
         <v>6</v>
@@ -4571,13 +4679,13 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B151" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C151" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D151" t="b">
         <v>1</v>
@@ -4591,13 +4699,13 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B152" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C152" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
@@ -4611,16 +4719,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B153" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C153" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="D153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="s">
         <v>6</v>
@@ -4631,16 +4739,16 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B154" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C154" t="s">
-        <v>177</v>
+        <v>385</v>
       </c>
       <c r="D154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E154" t="s">
         <v>6</v>
@@ -4651,19 +4759,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B155" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="C155" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>6</v>
+        <v>386</v>
       </c>
       <c r="F155" t="s">
         <v>6</v>
@@ -4671,13 +4779,13 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B156" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C156" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="D156" t="b">
         <v>1</v>
@@ -4691,16 +4799,16 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B157" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C157" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="D157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" t="s">
         <v>6</v>
@@ -4711,19 +4819,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B158" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="C158" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D158" t="b">
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>6</v>
+        <v>387</v>
       </c>
       <c r="F158" t="s">
         <v>6</v>
@@ -4731,19 +4839,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B159" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C159" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D159" t="b">
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>6</v>
+        <v>388</v>
       </c>
       <c r="F159" t="s">
         <v>6</v>
@@ -4751,16 +4859,16 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B160" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C160" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="D160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E160" t="s">
         <v>6</v>
@@ -4771,19 +4879,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B161" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C161" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>6</v>
+        <v>389</v>
       </c>
       <c r="F161" t="s">
         <v>6</v>
@@ -4791,19 +4899,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B162" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C162" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D162" t="b">
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>6</v>
+        <v>390</v>
       </c>
       <c r="F162" t="s">
         <v>6</v>
@@ -4811,19 +4919,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B163" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C163" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="D163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>6</v>
+        <v>391</v>
       </c>
       <c r="F163" t="s">
         <v>6</v>
@@ -4831,16 +4939,16 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B164" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C164" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="D164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E164" t="s">
         <v>6</v>
@@ -4851,19 +4959,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B165" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C165" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="D165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>6</v>
+        <v>392</v>
       </c>
       <c r="F165" t="s">
         <v>6</v>
@@ -4871,13 +4979,13 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B166" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C166" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D166" t="b">
         <v>1</v>
@@ -4891,13 +4999,13 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C167" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="D167" t="b">
         <v>1</v>
@@ -4911,19 +5019,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C168" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>6</v>
+        <v>393</v>
       </c>
       <c r="F168" t="s">
         <v>6</v>
@@ -4931,13 +5039,13 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B169" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C169" t="s">
-        <v>197</v>
+        <v>394</v>
       </c>
       <c r="D169" t="b">
         <v>1</v>
@@ -4951,16 +5059,16 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B170" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C170" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="D170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E170" t="s">
         <v>6</v>
@@ -4971,13 +5079,13 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B171" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C171" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D171" t="b">
         <v>1</v>
@@ -4991,19 +5099,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B172" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C172" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D172" t="b">
         <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>6</v>
+        <v>352</v>
       </c>
       <c r="F172" t="s">
         <v>6</v>
@@ -5011,19 +5119,19 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B173" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C173" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="D173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>6</v>
+        <v>365</v>
       </c>
       <c r="F173" t="s">
         <v>6</v>
@@ -5031,13 +5139,13 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="B174" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C174" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="D174" t="b">
         <v>1</v>
@@ -5051,19 +5159,19 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B175" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C175" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D175" t="b">
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>6</v>
+        <v>395</v>
       </c>
       <c r="F175" t="s">
         <v>6</v>
@@ -5071,13 +5179,13 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="B176" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="C176" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D176" t="b">
         <v>1</v>
@@ -5091,16 +5199,16 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B177" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C177" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E177" t="s">
         <v>6</v>
@@ -5111,13 +5219,13 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B178" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C178" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D178" t="b">
         <v>1</v>
@@ -5131,19 +5239,19 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B179" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C179" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="D179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179" t="s">
-        <v>6</v>
+        <v>396</v>
       </c>
       <c r="F179" t="s">
         <v>6</v>
@@ -5151,16 +5259,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B180" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C180" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E180" t="s">
         <v>6</v>
@@ -5171,19 +5279,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B181" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C181" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D181" t="b">
         <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>6</v>
+        <v>397</v>
       </c>
       <c r="F181" t="s">
         <v>6</v>
@@ -5191,13 +5299,13 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B182" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C182" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D182" t="b">
         <v>1</v>
@@ -5211,16 +5319,16 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B183" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C183" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" t="s">
         <v>6</v>
@@ -5231,19 +5339,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B184" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C184" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E184" t="s">
-        <v>6</v>
+        <v>398</v>
       </c>
       <c r="F184" t="s">
         <v>6</v>
@@ -5251,13 +5359,13 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B185" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C185" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="D185" t="b">
         <v>1</v>
@@ -5271,13 +5379,13 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B186" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C186" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D186" t="b">
         <v>1</v>
@@ -5291,16 +5399,16 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B187" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C187" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E187" t="s">
         <v>6</v>
@@ -5311,13 +5419,13 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B188" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C188" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="D188" t="b">
         <v>1</v>
@@ -5331,16 +5439,16 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B189" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="C189" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189" t="s">
         <v>6</v>
@@ -5351,13 +5459,13 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B190" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C190" t="s">
-        <v>225</v>
+        <v>399</v>
       </c>
       <c r="D190" t="b">
         <v>1</v>
@@ -5371,19 +5479,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B191" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C191" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="D191" t="b">
         <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>6</v>
+        <v>400</v>
       </c>
       <c r="F191" t="s">
         <v>6</v>
@@ -5391,13 +5499,13 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B192" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="C192" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D192" t="b">
         <v>1</v>
@@ -5411,19 +5519,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B193" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="C193" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="D193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>6</v>
+        <v>401</v>
       </c>
       <c r="F193" t="s">
         <v>6</v>
@@ -5431,19 +5539,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="B194" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C194" t="s">
-        <v>231</v>
+        <v>402</v>
       </c>
       <c r="D194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>6</v>
+        <v>403</v>
       </c>
       <c r="F194" t="s">
         <v>6</v>
@@ -5451,13 +5559,13 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B195" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C195" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="D195" t="b">
         <v>1</v>
@@ -5471,19 +5579,19 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B196" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C196" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>6</v>
+        <v>404</v>
       </c>
       <c r="F196" t="s">
         <v>6</v>
@@ -5491,13 +5599,13 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B197" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C197" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D197" t="b">
         <v>1</v>
@@ -5511,16 +5619,16 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B198" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C198" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="D198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E198" t="s">
         <v>6</v>
@@ -5531,16 +5639,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="B199" t="s">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="C199" t="s">
-        <v>237</v>
+        <v>300</v>
       </c>
       <c r="D199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199" t="s">
         <v>6</v>
@@ -5551,19 +5659,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="B200" t="s">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="C200" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="D200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E200" t="s">
-        <v>6</v>
+        <v>405</v>
       </c>
       <c r="F200" t="s">
         <v>6</v>
@@ -5571,19 +5679,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="B201" t="s">
-        <v>238</v>
+        <v>301</v>
       </c>
       <c r="C201" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="D201" t="b">
         <v>0</v>
       </c>
       <c r="E201" t="s">
-        <v>6</v>
+        <v>406</v>
       </c>
       <c r="F201" t="s">
         <v>6</v>
@@ -5591,13 +5699,13 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="B202" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C202" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="D202" t="b">
         <v>1</v>
@@ -5611,16 +5719,16 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B203" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C203" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="D203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E203" t="s">
         <v>6</v>
@@ -5631,16 +5739,16 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B204" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="C204" t="s">
-        <v>244</v>
+        <v>407</v>
       </c>
       <c r="D204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E204" t="s">
         <v>6</v>
@@ -5651,13 +5759,13 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="B205" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="C205" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="D205" t="b">
         <v>1</v>
@@ -5671,16 +5779,16 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="B206" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="C206" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="D206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E206" t="s">
         <v>6</v>
@@ -5691,16 +5799,16 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="B207" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C207" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="D207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E207" t="s">
         <v>6</v>
@@ -5711,13 +5819,13 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B208" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C208" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="D208" t="b">
         <v>0</v>
@@ -5731,13 +5839,13 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="B209" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="C209" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="D209" t="b">
         <v>1</v>
@@ -5751,16 +5859,16 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="B210" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C210" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="D210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E210" t="s">
         <v>6</v>
@@ -5771,16 +5879,16 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="B211" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C211" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E211" t="s">
         <v>6</v>
@@ -5791,16 +5899,16 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="B212" t="s">
-        <v>341</v>
+        <v>233</v>
       </c>
       <c r="C212" t="s">
-        <v>340</v>
+        <v>236</v>
       </c>
       <c r="D212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E212" t="s">
         <v>6</v>
@@ -5811,13 +5919,13 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="B213" t="s">
-        <v>341</v>
+        <v>237</v>
       </c>
       <c r="C213" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D213" t="b">
         <v>0</v>
@@ -5831,13 +5939,13 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="B214" t="s">
-        <v>341</v>
+        <v>237</v>
       </c>
       <c r="C214" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D214" t="b">
         <v>0</v>
@@ -5851,13 +5959,13 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="B215" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="C215" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D215" t="b">
         <v>1</v>
@@ -5871,16 +5979,16 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="B216" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C216" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E216" t="s">
         <v>6</v>
@@ -5891,16 +5999,16 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="B217" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C217" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="D217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E217" t="s">
         <v>6</v>
@@ -5911,13 +6019,13 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="B218" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="C218" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="D218" t="b">
         <v>1</v>
@@ -5931,16 +6039,16 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="B219" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C219" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E219" t="s">
         <v>6</v>
@@ -5951,13 +6059,13 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="B220" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C220" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D220" t="b">
         <v>1</v>
@@ -5971,13 +6079,13 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="B221" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="C221" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="D221" t="b">
         <v>0</v>
@@ -5991,16 +6099,16 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="B222" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C222" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="D222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E222" t="s">
         <v>6</v>
@@ -6011,13 +6119,13 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="B223" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C223" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="D223" t="b">
         <v>1</v>
@@ -6031,13 +6139,13 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="B224" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="C224" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="D224" t="b">
         <v>1</v>
@@ -6051,13 +6159,13 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="B225" t="s">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="C225" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="D225" t="b">
         <v>0</v>
@@ -6071,13 +6179,13 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="B226" t="s">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="C226" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="D226" t="b">
         <v>1</v>
@@ -6091,16 +6199,16 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="B227" t="s">
-        <v>272</v>
+        <v>202</v>
       </c>
       <c r="C227" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="D227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E227" t="s">
         <v>6</v>
@@ -6111,13 +6219,13 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="B228" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="C228" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="D228" t="b">
         <v>1</v>
@@ -6131,13 +6239,13 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="B229" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="C229" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D229" t="b">
         <v>1</v>
@@ -6151,16 +6259,16 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="B230" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="C230" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="D230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E230" t="s">
         <v>6</v>
@@ -6171,13 +6279,13 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="B231" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="C231" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="D231" t="b">
         <v>0</v>
@@ -6191,13 +6299,13 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="B232" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="C232" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="D232" t="b">
         <v>1</v>
@@ -6211,13 +6319,13 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="B233" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C233" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="D233" t="b">
         <v>0</v>
@@ -6231,13 +6339,13 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="B234" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C234" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D234" t="b">
         <v>1</v>
@@ -6251,13 +6359,13 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="B235" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C235" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="D235" t="b">
         <v>1</v>
@@ -6271,13 +6379,13 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="B236" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="C236" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="D236" t="b">
         <v>1</v>
@@ -6291,13 +6399,13 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="B237" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C237" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="D237" t="b">
         <v>1</v>
@@ -6311,16 +6419,16 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="B238" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="C238" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="D238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E238" t="s">
         <v>6</v>
@@ -6331,16 +6439,16 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="B239" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="C239" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="D239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E239" t="s">
         <v>6</v>
@@ -6351,16 +6459,16 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="B240" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C240" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="D240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E240" t="s">
         <v>6</v>
@@ -6371,13 +6479,13 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="B241" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C241" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="D241" t="b">
         <v>1</v>
@@ -6391,13 +6499,13 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="B242" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="C242" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="D242" t="b">
         <v>0</v>
@@ -6411,16 +6519,16 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="B243" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="C243" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="D243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E243" t="s">
         <v>6</v>
@@ -6431,13 +6539,13 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="B244" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="C244" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="D244" t="b">
         <v>1</v>
@@ -6451,13 +6559,13 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="B245" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="C245" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="D245" t="b">
         <v>1</v>
@@ -6471,16 +6579,16 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="B246" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C246" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="D246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E246" t="s">
         <v>6</v>
@@ -6491,13 +6599,13 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="B247" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C247" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D247" t="b">
         <v>1</v>
@@ -6511,13 +6619,13 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="B248" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="C248" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="D248" t="b">
         <v>0</v>
@@ -6531,16 +6639,16 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="B249" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C249" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E249" t="s">
         <v>6</v>
@@ -6551,13 +6659,13 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="B250" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C250" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="D250" t="b">
         <v>0</v>
@@ -6571,13 +6679,13 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="B251" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="C251" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="D251" t="b">
         <v>1</v>
@@ -6591,13 +6699,13 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="B252" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C252" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D252" t="b">
         <v>1</v>
@@ -6611,16 +6719,16 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="B253" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C253" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E253" t="s">
         <v>6</v>
@@ -6631,16 +6739,16 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="B254" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="C254" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="D254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E254" t="s">
         <v>6</v>
@@ -6651,13 +6759,13 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="B255" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C255" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="D255" t="b">
         <v>1</v>
@@ -6671,16 +6779,16 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="B256" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C256" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="D256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E256" t="s">
         <v>6</v>
@@ -6691,16 +6799,16 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="B257" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="C257" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="D257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E257" t="s">
         <v>6</v>
@@ -6711,13 +6819,13 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="B258" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C258" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="D258" t="b">
         <v>1</v>
@@ -6731,16 +6839,16 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="B259" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C259" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="D259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E259" t="s">
         <v>6</v>
@@ -6751,13 +6859,13 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="B260" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="C260" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="D260" t="b">
         <v>0</v>
@@ -6766,346 +6874,6 @@
         <v>6</v>
       </c>
       <c r="F260" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="1">
-        <v>260</v>
-      </c>
-      <c r="B261" t="s">
-        <v>315</v>
-      </c>
-      <c r="C261" t="s">
-        <v>317</v>
-      </c>
-      <c r="D261" t="b">
-        <v>1</v>
-      </c>
-      <c r="E261" t="s">
-        <v>6</v>
-      </c>
-      <c r="F261" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
-        <v>261</v>
-      </c>
-      <c r="B262" t="s">
-        <v>315</v>
-      </c>
-      <c r="C262" t="s">
-        <v>318</v>
-      </c>
-      <c r="D262" t="b">
-        <v>1</v>
-      </c>
-      <c r="E262" t="s">
-        <v>6</v>
-      </c>
-      <c r="F262" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="1">
-        <v>262</v>
-      </c>
-      <c r="B263" t="s">
-        <v>319</v>
-      </c>
-      <c r="C263" t="s">
-        <v>320</v>
-      </c>
-      <c r="D263" t="b">
-        <v>0</v>
-      </c>
-      <c r="E263" t="s">
-        <v>6</v>
-      </c>
-      <c r="F263" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
-        <v>263</v>
-      </c>
-      <c r="B264" t="s">
-        <v>319</v>
-      </c>
-      <c r="C264" t="s">
-        <v>321</v>
-      </c>
-      <c r="D264" t="b">
-        <v>1</v>
-      </c>
-      <c r="E264" t="s">
-        <v>6</v>
-      </c>
-      <c r="F264" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
-        <v>264</v>
-      </c>
-      <c r="B265" t="s">
-        <v>319</v>
-      </c>
-      <c r="C265" t="s">
-        <v>322</v>
-      </c>
-      <c r="D265" t="b">
-        <v>0</v>
-      </c>
-      <c r="E265" t="s">
-        <v>6</v>
-      </c>
-      <c r="F265" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="1">
-        <v>265</v>
-      </c>
-      <c r="B266" t="s">
-        <v>323</v>
-      </c>
-      <c r="C266" t="s">
-        <v>324</v>
-      </c>
-      <c r="D266" t="b">
-        <v>0</v>
-      </c>
-      <c r="E266" t="s">
-        <v>6</v>
-      </c>
-      <c r="F266" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
-        <v>266</v>
-      </c>
-      <c r="B267" t="s">
-        <v>323</v>
-      </c>
-      <c r="C267" t="s">
-        <v>325</v>
-      </c>
-      <c r="D267" t="b">
-        <v>0</v>
-      </c>
-      <c r="E267" t="s">
-        <v>6</v>
-      </c>
-      <c r="F267" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="1">
-        <v>267</v>
-      </c>
-      <c r="B268" t="s">
-        <v>323</v>
-      </c>
-      <c r="C268" t="s">
-        <v>326</v>
-      </c>
-      <c r="D268" t="b">
-        <v>1</v>
-      </c>
-      <c r="E268" t="s">
-        <v>6</v>
-      </c>
-      <c r="F268" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="1">
-        <v>268</v>
-      </c>
-      <c r="B269" t="s">
-        <v>327</v>
-      </c>
-      <c r="C269" t="s">
-        <v>328</v>
-      </c>
-      <c r="D269" t="b">
-        <v>1</v>
-      </c>
-      <c r="E269" t="s">
-        <v>6</v>
-      </c>
-      <c r="F269" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
-        <v>269</v>
-      </c>
-      <c r="B270" t="s">
-        <v>327</v>
-      </c>
-      <c r="C270" t="s">
-        <v>329</v>
-      </c>
-      <c r="D270" t="b">
-        <v>0</v>
-      </c>
-      <c r="E270" t="s">
-        <v>6</v>
-      </c>
-      <c r="F270" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="1">
-        <v>270</v>
-      </c>
-      <c r="B271" t="s">
-        <v>327</v>
-      </c>
-      <c r="C271" t="s">
-        <v>330</v>
-      </c>
-      <c r="D271" t="b">
-        <v>0</v>
-      </c>
-      <c r="E271" t="s">
-        <v>6</v>
-      </c>
-      <c r="F271" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="1">
-        <v>271</v>
-      </c>
-      <c r="B272" t="s">
-        <v>331</v>
-      </c>
-      <c r="C272" t="s">
-        <v>332</v>
-      </c>
-      <c r="D272" t="b">
-        <v>1</v>
-      </c>
-      <c r="E272" t="s">
-        <v>6</v>
-      </c>
-      <c r="F272" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
-        <v>272</v>
-      </c>
-      <c r="B273" t="s">
-        <v>331</v>
-      </c>
-      <c r="C273" t="s">
-        <v>333</v>
-      </c>
-      <c r="D273" t="b">
-        <v>0</v>
-      </c>
-      <c r="E273" t="s">
-        <v>6</v>
-      </c>
-      <c r="F273" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="1">
-        <v>273</v>
-      </c>
-      <c r="B274" t="s">
-        <v>331</v>
-      </c>
-      <c r="C274" t="s">
-        <v>334</v>
-      </c>
-      <c r="D274" t="b">
-        <v>1</v>
-      </c>
-      <c r="E274" t="s">
-        <v>6</v>
-      </c>
-      <c r="F274" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="1">
-        <v>274</v>
-      </c>
-      <c r="B275" t="s">
-        <v>335</v>
-      </c>
-      <c r="C275" t="s">
-        <v>336</v>
-      </c>
-      <c r="D275" t="b">
-        <v>1</v>
-      </c>
-      <c r="E275" t="s">
-        <v>6</v>
-      </c>
-      <c r="F275" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="1">
-        <v>275</v>
-      </c>
-      <c r="B276" t="s">
-        <v>335</v>
-      </c>
-      <c r="C276" t="s">
-        <v>337</v>
-      </c>
-      <c r="D276" t="b">
-        <v>1</v>
-      </c>
-      <c r="E276" t="s">
-        <v>6</v>
-      </c>
-      <c r="F276" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="1">
-        <v>276</v>
-      </c>
-      <c r="B277" t="s">
-        <v>335</v>
-      </c>
-      <c r="C277" t="s">
-        <v>338</v>
-      </c>
-      <c r="D277" t="b">
-        <v>0</v>
-      </c>
-      <c r="E277" t="s">
-        <v>6</v>
-      </c>
-      <c r="F277" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Physiopathologie/Excel/cardiaque.xlsx
+++ b/Physiopathologie/Excel/cardiaque.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Physiopathologie\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CE3147D-C984-4DE4-8392-EC4C6C9DD3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B5D2BA-0D5A-48D3-872A-24CA7D7CB91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="403">
   <si>
     <t>Numero</t>
   </si>
@@ -734,27 +734,15 @@
     <t xml:space="preserve"> Le système orthosympathique innerve les cardiomyocytes auriculaires et ventriculaires, le nœud sinusal et le  nœud auriculo-ventriculaire, par effet Beta-2.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> La circulation pulmonaire est une circulation à haut débit et à basse pression.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q34. Concernant l'hémodynamique: </t>
   </si>
   <si>
-    <t xml:space="preserve"> Selon la relation de Laplace appliquée au ventricule, &amp; est la contrainte qui s'exerce au niveau de la paroi et qui est proportionnelle à l'épaisseur de cette paroi.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selon la relation de Poiseuille-Hagen, lorsque le rayon d'un vaisseau est doublé, le débit sanguin est multiplié  par 16.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La vitesse du courant sanguin est de l'ordre de 0,5 mm/sec au niveau du réseau capillaire.    </t>
   </si>
   <si>
     <t xml:space="preserve">Q31. Concernant l'activité électrique cardiaque:  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lorsque le complexe QRS est positif en DI et est positif en a VF, l'axe du cœur se situe entre O et -30°    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> En absence d'onde P visible à l'ECG, le rythme peut être sinusal.    </t>
   </si>
   <si>
@@ -770,9 +758,6 @@
     <t xml:space="preserve"> Les artérioles représentent le lieu principal de la résistance à l'écoulement du sang dans la mesure où la chute  de pression qui s'exerce à leur niveau est la plus importante,   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le débit sanguin de circulation pulmonaire est toujours égal au débit sanguin de la circulation systémique dans la mesure où ces deux circulations sont en série.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q26. Concernant la pompe cardiaque:  </t>
   </si>
   <si>
@@ -797,24 +782,12 @@
     <t xml:space="preserve"> Dans les conditions physiologiques, les sarcomères du cardiomyocyte ont une longueur de 0,9 um, ce qui permet d'augmenter leur tension active lorsque la fibre est étirée jusqu'à 2.2-2,4 um.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le premier bruit du cœur est lié à la fermeture des valves aortique et pulmonaire.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La durée d’un cycle cardiaque est l'inverse de la fréquence cardiaque.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Le volume télésystolique normal et au repos est de l'ordre de 50 à 60 ml.    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q4,. En considérant le ventricule, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
   </si>
   <si>
     <t xml:space="preserve"> Une augmentation de l’élastance diminue le volume télédiastolique pour une pression télédiastolique donnée.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Une hypertension artérielle au long cours conduit à une hypertrophie du ventricule gauche qui débouche sur une diminution de la postcharge et de la précharge.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Modifier la droite d'élastance de fin de systole revient à changer la contractilité.    </t>
   </si>
   <si>
@@ -836,9 +809,6 @@
     <t xml:space="preserve"> Si le débit cardiaque est de 10 L/minute, la fréquence cardiaque de 100/minute et le volume télédiastolique de 150 mil, alors la fraction d'éjection est de 66%.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Une fraction d'éjection de 30% peut se voir dans une sténose aortique du fait d’une contrainte o du ventricule  gauche augmentée même si la tension artérielle est basse.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La fraction d'éjection est souvent conservée dans la dysfonction diastolique alors que le débit cardiaque est diminué.    </t>
   </si>
   <si>
@@ -893,9 +863,6 @@
     <t xml:space="preserve">Q36. En considérant la régulation parasympathique et sympathique du cœur, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le tonus orthosympathique détermine la fréquence cardiaque de repos.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Inotrope ou contractilité, chronotrope ou vitesse de conduction et dromotrope ou fréquence cardiaque: ces trois caractéristiques sont activées par la stimulation orthosympathique.   </t>
   </si>
   <si>
@@ -911,33 +878,6 @@
     <t xml:space="preserve"> Un médicament inotrope positif qui augmente le volume d'éjection systolique est excellent pour la perfusion coronaire.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> L'essentiel de l'énergie dépensée par le cœur se produit pendant la phase d'éjection ventriculaire.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q30. En considérant le muscle cardiaque, la précharge, la postcharge et la contractilité, caractériser par  ou  chacune des propositions suivantes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Par comparaison avec l'augmentation du raccourcissement d'une fibre myocardique isolée sous l'effet d'un agent inotrope, on utilisera l'amélioration de la fraction d'éjection à l'échelon du ventricule entier.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'augmentation isolée de la précharge implique une augmentation du volume d'éjection systolique à une vitesse  d'éjection plus rapide jusqu'à un volume télésystolique plus petit.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> L'augmentation isolée de la postcharge implique un volume télésystolique plus grand et une vitesse d’éjection moins rapide.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q28. En considérant le ventricule, caractériser par Vrai ou Faux chacune des propositions suivantes.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La postcharge correspond au © du ventricule gauche durant tout le temps de l’éjection ventriculaire.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La dilatation du ventricule augmente la postcharge et la précharge.   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Précharge, postcharge et contractilité sont liées. Par exemple, une augmentation de la postcharge mène immédiatement à une augmentation de la précharge qui est suffisante pour corriger le volume d'éjection systolique.    </t>
-  </si>
-  <si>
     <t>La pression artériel pulsée est proportionnelle au VES et à la compliance aortique</t>
   </si>
   <si>
@@ -1260,6 +1200,51 @@
   </si>
   <si>
     <t xml:space="preserve"> Au niveau de la fibre musculaire cardiaque, la noradrénaline augmente Vmax mais sans modifier la tension isométrique maximale,    </t>
+  </si>
+  <si>
+    <t>"de l'ordre" donc 0,03cm/s est equivalent à 0,5mm/sec</t>
+  </si>
+  <si>
+    <t>L'importance du raccourcissement de la fibre devient le volume ejecté systolique</t>
+  </si>
+  <si>
+    <t>Indépendant, (inotropisme = contractilité)</t>
+  </si>
+  <si>
+    <t>systolique tres haut mais diastolique tres bas</t>
+  </si>
+  <si>
+    <t>askip c vrai</t>
+  </si>
+  <si>
+    <t>Les vasodilatateurs diminuent la résistance périphérique totale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Une fraction d'éjection de 30% peut se voir dans une sténose aortique du fait d’une contrainte sigma du ventricule  gauche augmentée même si la tension artérielle est basse.   </t>
+  </si>
+  <si>
+    <t>Si la fraction d'ejection est de 30%, elle est en dessous de 40% (cptn obvious) et donc si la contrainte sigma a augmenté, ça veut dire que la postcharge a augmenté donc on est dans le cas en haut à droite sur l'image. Or la tension artérielle reste basse, donc on est obligatoirement en sténose aortique</t>
+  </si>
+  <si>
+    <t>Si il y a une hypertension artérielle systémique, ça veut dire que l'axe électrique du cœur aura tendance à s'orienter vers la gauche (pour bien bien innerver le ventricule gauche) et donc le complexe QRS (qui représente l'axe electrique du cœur) peut apparaitre nul en DII (isoelectrique quoi) et negatif en aVF</t>
+  </si>
+  <si>
+    <t>epicarde vers endocarde</t>
+  </si>
+  <si>
+    <t>la resistance cardiaque diminue moins que le debit cardiaque augmente</t>
+  </si>
+  <si>
+    <t>ça affecte la fonction diastolique (la compliance reflete l'elastance vu que c'est l'inverse l'un de l'autre)</t>
+  </si>
+  <si>
+    <t>A cause de l'hypertrophie, le muscle du ventricule gauche sera bcp plus epais, donc le remplissage du ventricule gauche sera diminué -&gt; précharge diminue. De même, parceque le muscle sera plus epais, il sera plus tendu -&gt; diminution de la postcharge</t>
+  </si>
+  <si>
+    <t>Le retour veineux va influer sur le volume telediastolique, mais n'aura donc aucun rapport avec le volume telesystolique. Il n'y aura donc aucun changement de la droite d'elastance en fin de systole</t>
+  </si>
+  <si>
+    <t>L'erreur ici c'est que chronotrope = frequence cardiaque et dromotrope = vitesse de conduction</t>
   </si>
 </sst>
 </file>
@@ -1664,10 +1649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
-  <dimension ref="A1:F260"/>
+  <dimension ref="A1:F243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C186" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209"/>
+    <sheetView tabSelected="1" topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -1771,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1785,7 +1770,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1811,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -1831,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -1891,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -1925,7 +1910,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1971,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -1991,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -2011,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
@@ -2071,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
@@ -2151,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
@@ -2171,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -2191,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="F26" t="s">
         <v>6</v>
@@ -2291,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="F31" t="s">
         <v>6</v>
@@ -2331,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="F33" t="s">
         <v>6</v>
@@ -2365,13 +2350,13 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="F35" t="s">
         <v>6</v>
@@ -2451,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
@@ -2511,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="F42" t="s">
         <v>6</v>
@@ -2551,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
@@ -2631,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="F48" t="s">
         <v>6</v>
@@ -2651,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -2691,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="F51" t="s">
         <v>6</v>
@@ -2705,13 +2690,13 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="F52" t="s">
         <v>6</v>
@@ -2785,13 +2770,13 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="F56" t="s">
         <v>6</v>
@@ -2871,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="F60" t="s">
         <v>6</v>
@@ -2911,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="F62" t="s">
         <v>6</v>
@@ -2971,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="F65" t="s">
         <v>6</v>
@@ -2991,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="F66" t="s">
         <v>6</v>
@@ -3025,7 +3010,7 @@
         <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
@@ -3151,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="F74" t="s">
         <v>6</v>
@@ -3171,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="F75" t="s">
         <v>6</v>
@@ -3191,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="F76" t="s">
         <v>6</v>
@@ -3205,7 +3190,7 @@
         <v>81</v>
       </c>
       <c r="C77" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -3231,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="F78" t="s">
         <v>6</v>
@@ -3251,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="F79" t="s">
         <v>6</v>
@@ -3271,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="F80" t="s">
         <v>6</v>
@@ -3285,7 +3270,7 @@
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="D81" t="b">
         <v>1</v>
@@ -3305,13 +3290,13 @@
         <v>84</v>
       </c>
       <c r="C82" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="F82" t="s">
         <v>6</v>
@@ -3331,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="F83" t="s">
         <v>6</v>
@@ -3351,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="F84" t="s">
         <v>6</v>
@@ -3371,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
@@ -3379,13 +3364,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>90</v>
       </c>
       <c r="C86" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="D86" t="b">
         <v>1</v>
@@ -3399,7 +3384,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>90</v>
@@ -3419,19 +3404,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="F88" t="s">
         <v>6</v>
@@ -3439,7 +3424,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>92</v>
@@ -3459,7 +3444,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>92</v>
@@ -3479,7 +3464,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
@@ -3491,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="F91" t="s">
         <v>6</v>
@@ -3499,7 +3484,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>96</v>
@@ -3519,7 +3504,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>96</v>
@@ -3539,7 +3524,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>96</v>
@@ -3551,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="F94" t="s">
         <v>6</v>
@@ -3559,7 +3544,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>100</v>
@@ -3579,7 +3564,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>100</v>
@@ -3599,7 +3584,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>100</v>
@@ -3619,7 +3604,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>104</v>
@@ -3631,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="F98" t="s">
         <v>6</v>
@@ -3639,7 +3624,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>104</v>
@@ -3659,13 +3644,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>104</v>
       </c>
       <c r="C100" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="D100" t="b">
         <v>1</v>
@@ -3679,7 +3664,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -3691,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="F101" t="s">
         <v>6</v>
@@ -3699,7 +3684,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -3711,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="F102" t="s">
         <v>6</v>
@@ -3719,19 +3704,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="F103" t="s">
         <v>6</v>
@@ -3739,7 +3724,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>109</v>
@@ -3751,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="F104" t="s">
         <v>6</v>
@@ -3759,7 +3744,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>109</v>
@@ -3779,7 +3764,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>109</v>
@@ -3799,7 +3784,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>113</v>
@@ -3819,7 +3804,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>113</v>
@@ -3831,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="F108" t="s">
         <v>6</v>
@@ -3839,13 +3824,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>113</v>
       </c>
       <c r="C109" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
@@ -3859,13 +3844,13 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>116</v>
       </c>
       <c r="C110" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="D110" t="b">
         <v>1</v>
@@ -3879,7 +3864,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>116</v>
@@ -3891,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="F111" t="s">
         <v>6</v>
@@ -3899,7 +3884,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>118</v>
@@ -3919,7 +3904,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>118</v>
@@ -3939,13 +3924,13 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>121</v>
       </c>
       <c r="C114" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
@@ -3959,7 +3944,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>121</v>
@@ -3979,7 +3964,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>121</v>
@@ -3991,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="F116" t="s">
         <v>6</v>
@@ -3999,19 +3984,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>124</v>
       </c>
       <c r="C117" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="F117" t="s">
         <v>6</v>
@@ -4019,7 +4004,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>124</v>
@@ -4039,7 +4024,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>124</v>
@@ -4059,7 +4044,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
@@ -4079,7 +4064,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
@@ -4099,7 +4084,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -4119,7 +4104,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -4139,7 +4124,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -4159,7 +4144,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -4171,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="F125" t="s">
         <v>6</v>
@@ -4179,7 +4164,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -4191,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="F126" t="s">
         <v>6</v>
@@ -4199,7 +4184,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -4219,7 +4204,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -4231,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="F128" t="s">
         <v>6</v>
@@ -4239,7 +4224,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -4251,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="F129" t="s">
         <v>6</v>
@@ -4259,13 +4244,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="D130" t="b">
         <v>1</v>
@@ -4279,7 +4264,7 @@
     </row>
     <row r="131" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -4299,7 +4284,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -4319,7 +4304,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -4339,7 +4324,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -4359,7 +4344,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
@@ -4371,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="F135" t="s">
         <v>6</v>
@@ -4379,7 +4364,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -4399,7 +4384,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
@@ -4411,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="F137" t="s">
         <v>6</v>
@@ -4419,7 +4404,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>144</v>
@@ -4431,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="F138" t="s">
         <v>6</v>
@@ -4439,7 +4424,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>144</v>
@@ -4451,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="F139" t="s">
         <v>6</v>
@@ -4459,7 +4444,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>144</v>
@@ -4471,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="F140" t="s">
         <v>6</v>
@@ -4479,7 +4464,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>148</v>
@@ -4499,13 +4484,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>148</v>
       </c>
       <c r="C142" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="D142" t="b">
         <v>1</v>
@@ -4519,7 +4504,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>148</v>
@@ -4531,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="F143" t="s">
         <v>6</v>
@@ -4539,7 +4524,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>151</v>
@@ -4559,7 +4544,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>151</v>
@@ -4571,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="F145" t="s">
         <v>6</v>
@@ -4579,7 +4564,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>151</v>
@@ -4599,19 +4584,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>155</v>
       </c>
       <c r="C147" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="F147" t="s">
         <v>6</v>
@@ -4619,19 +4604,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>155</v>
       </c>
       <c r="C148" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="F148" t="s">
         <v>6</v>
@@ -4639,7 +4624,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>155</v>
@@ -4659,7 +4644,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>157</v>
@@ -4671,7 +4656,7 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="F150" t="s">
         <v>6</v>
@@ -4679,7 +4664,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>157</v>
@@ -4699,7 +4684,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>157</v>
@@ -4719,7 +4704,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>161</v>
@@ -4739,13 +4724,13 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>161</v>
       </c>
       <c r="C154" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="D154" t="b">
         <v>1</v>
@@ -4759,7 +4744,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>161</v>
@@ -4771,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="F155" t="s">
         <v>6</v>
@@ -4779,7 +4764,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>164</v>
@@ -4799,7 +4784,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>164</v>
@@ -4819,7 +4804,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>164</v>
@@ -4831,7 +4816,7 @@
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="F158" t="s">
         <v>6</v>
@@ -4839,7 +4824,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>168</v>
@@ -4851,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="F159" t="s">
         <v>6</v>
@@ -4859,7 +4844,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>170</v>
@@ -4879,7 +4864,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>170</v>
@@ -4891,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="F161" t="s">
         <v>6</v>
@@ -4899,7 +4884,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>170</v>
@@ -4911,7 +4896,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="F162" t="s">
         <v>6</v>
@@ -4919,7 +4904,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>174</v>
@@ -4931,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="F163" t="s">
         <v>6</v>
@@ -4939,7 +4924,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>174</v>
@@ -4959,7 +4944,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>174</v>
@@ -4971,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="F165" t="s">
         <v>6</v>
@@ -4979,7 +4964,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B166" t="s">
         <v>178</v>
@@ -4999,7 +4984,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>178</v>
@@ -5019,7 +5004,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>178</v>
@@ -5031,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="F168" t="s">
         <v>6</v>
@@ -5039,13 +5024,13 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>182</v>
       </c>
       <c r="C169" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="D169" t="b">
         <v>1</v>
@@ -5059,7 +5044,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>182</v>
@@ -5079,7 +5064,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>184</v>
@@ -5099,7 +5084,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>184</v>
@@ -5111,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="F172" t="s">
         <v>6</v>
@@ -5119,7 +5104,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>184</v>
@@ -5131,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="F173" t="s">
         <v>6</v>
@@ -5139,7 +5124,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>188</v>
@@ -5159,7 +5144,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>188</v>
@@ -5171,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="F175" t="s">
         <v>6</v>
@@ -5179,7 +5164,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>188</v>
@@ -5199,7 +5184,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>192</v>
@@ -5219,7 +5204,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>192</v>
@@ -5239,7 +5224,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>192</v>
@@ -5251,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="E179" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="F179" t="s">
         <v>6</v>
@@ -5259,7 +5244,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>196</v>
@@ -5279,7 +5264,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>196</v>
@@ -5291,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="F181" t="s">
         <v>6</v>
@@ -5299,7 +5284,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>196</v>
@@ -5319,7 +5304,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>200</v>
@@ -5339,7 +5324,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>202</v>
@@ -5351,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="F184" t="s">
         <v>6</v>
@@ -5359,7 +5344,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>202</v>
@@ -5379,7 +5364,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>202</v>
@@ -5399,7 +5384,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>206</v>
@@ -5419,7 +5404,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>206</v>
@@ -5439,7 +5424,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>206</v>
@@ -5459,13 +5444,13 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>210</v>
       </c>
       <c r="C190" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="D190" t="b">
         <v>1</v>
@@ -5479,7 +5464,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>210</v>
@@ -5491,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="F191" t="s">
         <v>6</v>
@@ -5499,7 +5484,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>210</v>
@@ -5519,7 +5504,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>213</v>
@@ -5531,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="F193" t="s">
         <v>6</v>
@@ -5539,19 +5524,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>213</v>
       </c>
       <c r="C194" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="D194" t="b">
         <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="F194" t="s">
         <v>6</v>
@@ -5559,7 +5544,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>213</v>
@@ -5579,7 +5564,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>216</v>
@@ -5591,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="F196" t="s">
         <v>6</v>
@@ -5599,7 +5584,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B197" t="s">
         <v>218</v>
@@ -5619,7 +5604,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B198" t="s">
         <v>218</v>
@@ -5639,13 +5624,13 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="C199" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="D199" t="b">
         <v>0</v>
@@ -5659,10 +5644,10 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="C200" t="s">
         <v>221</v>
@@ -5671,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="F200" t="s">
         <v>6</v>
@@ -5679,10 +5664,10 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="C201" t="s">
         <v>222</v>
@@ -5691,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="E201" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="F201" t="s">
         <v>6</v>
@@ -5699,7 +5684,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="B202" t="s">
         <v>223</v>
@@ -5719,7 +5704,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B203" t="s">
         <v>223</v>
@@ -5739,13 +5724,13 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B204" t="s">
         <v>223</v>
       </c>
       <c r="C204" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="D204" t="b">
         <v>0</v>
@@ -5759,7 +5744,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="B205" t="s">
         <v>226</v>
@@ -5779,7 +5764,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="B206" t="s">
         <v>226</v>
@@ -5799,7 +5784,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="B207" t="s">
         <v>229</v>
@@ -5819,7 +5804,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B208" t="s">
         <v>229</v>
@@ -5839,19 +5824,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C209" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D209" t="b">
         <v>1</v>
       </c>
       <c r="E209" t="s">
-        <v>6</v>
+        <v>388</v>
       </c>
       <c r="F209" t="s">
         <v>6</v>
@@ -5859,13 +5844,13 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C210" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D210" t="b">
         <v>0</v>
@@ -5879,13 +5864,13 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C211" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D211" t="b">
         <v>1</v>
@@ -5899,19 +5884,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C212" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E212" t="s">
-        <v>6</v>
+        <v>309</v>
       </c>
       <c r="F212" t="s">
         <v>6</v>
@@ -5919,16 +5904,16 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="B213" t="s">
         <v>237</v>
       </c>
       <c r="C213" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E213" t="s">
         <v>6</v>
@@ -5939,16 +5924,16 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C214" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E214" t="s">
         <v>6</v>
@@ -5959,13 +5944,13 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C215" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D215" t="b">
         <v>1</v>
@@ -5979,19 +5964,19 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C216" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D216" t="b">
         <v>0</v>
       </c>
       <c r="E216" t="s">
-        <v>6</v>
+        <v>389</v>
       </c>
       <c r="F216" t="s">
         <v>6</v>
@@ -5999,19 +5984,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C217" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E217" t="s">
-        <v>6</v>
+        <v>390</v>
       </c>
       <c r="F217" t="s">
         <v>6</v>
@@ -6019,13 +6004,13 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C218" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D218" t="b">
         <v>1</v>
@@ -6039,13 +6024,13 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C219" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D219" t="b">
         <v>1</v>
@@ -6059,13 +6044,13 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C220" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D220" t="b">
         <v>1</v>
@@ -6079,16 +6064,16 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C221" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E221" t="s">
         <v>6</v>
@@ -6099,19 +6084,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C222" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D222" t="b">
         <v>0</v>
       </c>
       <c r="E222" t="s">
-        <v>6</v>
+        <v>391</v>
       </c>
       <c r="F222" t="s">
         <v>6</v>
@@ -6119,19 +6104,19 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C223" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D223" t="b">
         <v>1</v>
       </c>
       <c r="E223" t="s">
-        <v>6</v>
+        <v>392</v>
       </c>
       <c r="F223" t="s">
         <v>6</v>
@@ -6139,19 +6124,19 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C224" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E224" t="s">
-        <v>6</v>
+        <v>393</v>
       </c>
       <c r="F224" t="s">
         <v>6</v>
@@ -6159,16 +6144,16 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="C225" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E225" t="s">
         <v>6</v>
@@ -6179,19 +6164,19 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="C226" t="s">
-        <v>254</v>
+        <v>394</v>
       </c>
       <c r="D226" t="b">
         <v>1</v>
       </c>
       <c r="E226" t="s">
-        <v>6</v>
+        <v>395</v>
       </c>
       <c r="F226" t="s">
         <v>6</v>
@@ -6199,13 +6184,13 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>202</v>
+        <v>255</v>
       </c>
       <c r="C227" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D227" t="b">
         <v>1</v>
@@ -6219,19 +6204,19 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C228" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D228" t="b">
         <v>1</v>
       </c>
       <c r="E228" t="s">
-        <v>6</v>
+        <v>396</v>
       </c>
       <c r="F228" t="s">
         <v>6</v>
@@ -6239,13 +6224,13 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C229" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D229" t="b">
         <v>1</v>
@@ -6259,13 +6244,13 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C230" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D230" t="b">
         <v>1</v>
@@ -6279,13 +6264,13 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C231" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D231" t="b">
         <v>0</v>
@@ -6299,13 +6284,13 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C232" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D232" t="b">
         <v>1</v>
@@ -6319,19 +6304,19 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C233" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D233" t="b">
         <v>0</v>
       </c>
       <c r="E233" t="s">
-        <v>6</v>
+        <v>397</v>
       </c>
       <c r="F233" t="s">
         <v>6</v>
@@ -6339,19 +6324,19 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C234" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E234" t="s">
-        <v>6</v>
+        <v>398</v>
       </c>
       <c r="F234" t="s">
         <v>6</v>
@@ -6359,13 +6344,13 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C235" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D235" t="b">
         <v>1</v>
@@ -6379,13 +6364,13 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C236" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D236" t="b">
         <v>1</v>
@@ -6399,19 +6384,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C237" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E237" t="s">
-        <v>6</v>
+        <v>399</v>
       </c>
       <c r="F237" t="s">
         <v>6</v>
@@ -6419,19 +6404,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C238" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D238" t="b">
         <v>1</v>
       </c>
       <c r="E238" t="s">
-        <v>6</v>
+        <v>400</v>
       </c>
       <c r="F238" t="s">
         <v>6</v>
@@ -6439,19 +6424,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C239" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E239" t="s">
-        <v>6</v>
+        <v>401</v>
       </c>
       <c r="F239" t="s">
         <v>6</v>
@@ -6459,19 +6444,19 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C240" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D240" t="b">
         <v>0</v>
       </c>
       <c r="E240" t="s">
-        <v>6</v>
+        <v>402</v>
       </c>
       <c r="F240" t="s">
         <v>6</v>
@@ -6479,13 +6464,13 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C241" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D241" t="b">
         <v>1</v>
@@ -6499,16 +6484,16 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C242" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E242" t="s">
         <v>6</v>
@@ -6519,13 +6504,13 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C243" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D243" t="b">
         <v>0</v>
@@ -6534,346 +6519,6 @@
         <v>6</v>
       </c>
       <c r="F243" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
-        <v>260</v>
-      </c>
-      <c r="B244" t="s">
-        <v>276</v>
-      </c>
-      <c r="C244" t="s">
-        <v>278</v>
-      </c>
-      <c r="D244" t="b">
-        <v>1</v>
-      </c>
-      <c r="E244" t="s">
-        <v>6</v>
-      </c>
-      <c r="F244" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
-        <v>261</v>
-      </c>
-      <c r="B245" t="s">
-        <v>276</v>
-      </c>
-      <c r="C245" t="s">
-        <v>279</v>
-      </c>
-      <c r="D245" t="b">
-        <v>1</v>
-      </c>
-      <c r="E245" t="s">
-        <v>6</v>
-      </c>
-      <c r="F245" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
-        <v>262</v>
-      </c>
-      <c r="B246" t="s">
-        <v>280</v>
-      </c>
-      <c r="C246" t="s">
-        <v>281</v>
-      </c>
-      <c r="D246" t="b">
-        <v>0</v>
-      </c>
-      <c r="E246" t="s">
-        <v>6</v>
-      </c>
-      <c r="F246" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
-        <v>263</v>
-      </c>
-      <c r="B247" t="s">
-        <v>280</v>
-      </c>
-      <c r="C247" t="s">
-        <v>282</v>
-      </c>
-      <c r="D247" t="b">
-        <v>1</v>
-      </c>
-      <c r="E247" t="s">
-        <v>6</v>
-      </c>
-      <c r="F247" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
-        <v>264</v>
-      </c>
-      <c r="B248" t="s">
-        <v>280</v>
-      </c>
-      <c r="C248" t="s">
-        <v>283</v>
-      </c>
-      <c r="D248" t="b">
-        <v>0</v>
-      </c>
-      <c r="E248" t="s">
-        <v>6</v>
-      </c>
-      <c r="F248" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
-        <v>265</v>
-      </c>
-      <c r="B249" t="s">
-        <v>284</v>
-      </c>
-      <c r="C249" t="s">
-        <v>285</v>
-      </c>
-      <c r="D249" t="b">
-        <v>0</v>
-      </c>
-      <c r="E249" t="s">
-        <v>6</v>
-      </c>
-      <c r="F249" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
-        <v>266</v>
-      </c>
-      <c r="B250" t="s">
-        <v>284</v>
-      </c>
-      <c r="C250" t="s">
-        <v>286</v>
-      </c>
-      <c r="D250" t="b">
-        <v>0</v>
-      </c>
-      <c r="E250" t="s">
-        <v>6</v>
-      </c>
-      <c r="F250" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
-        <v>267</v>
-      </c>
-      <c r="B251" t="s">
-        <v>284</v>
-      </c>
-      <c r="C251" t="s">
-        <v>287</v>
-      </c>
-      <c r="D251" t="b">
-        <v>1</v>
-      </c>
-      <c r="E251" t="s">
-        <v>6</v>
-      </c>
-      <c r="F251" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
-        <v>268</v>
-      </c>
-      <c r="B252" t="s">
-        <v>288</v>
-      </c>
-      <c r="C252" t="s">
-        <v>289</v>
-      </c>
-      <c r="D252" t="b">
-        <v>1</v>
-      </c>
-      <c r="E252" t="s">
-        <v>6</v>
-      </c>
-      <c r="F252" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
-        <v>269</v>
-      </c>
-      <c r="B253" t="s">
-        <v>288</v>
-      </c>
-      <c r="C253" t="s">
-        <v>290</v>
-      </c>
-      <c r="D253" t="b">
-        <v>0</v>
-      </c>
-      <c r="E253" t="s">
-        <v>6</v>
-      </c>
-      <c r="F253" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
-        <v>270</v>
-      </c>
-      <c r="B254" t="s">
-        <v>288</v>
-      </c>
-      <c r="C254" t="s">
-        <v>291</v>
-      </c>
-      <c r="D254" t="b">
-        <v>0</v>
-      </c>
-      <c r="E254" t="s">
-        <v>6</v>
-      </c>
-      <c r="F254" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
-        <v>271</v>
-      </c>
-      <c r="B255" t="s">
-        <v>292</v>
-      </c>
-      <c r="C255" t="s">
-        <v>293</v>
-      </c>
-      <c r="D255" t="b">
-        <v>1</v>
-      </c>
-      <c r="E255" t="s">
-        <v>6</v>
-      </c>
-      <c r="F255" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
-        <v>272</v>
-      </c>
-      <c r="B256" t="s">
-        <v>292</v>
-      </c>
-      <c r="C256" t="s">
-        <v>294</v>
-      </c>
-      <c r="D256" t="b">
-        <v>0</v>
-      </c>
-      <c r="E256" t="s">
-        <v>6</v>
-      </c>
-      <c r="F256" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
-        <v>273</v>
-      </c>
-      <c r="B257" t="s">
-        <v>292</v>
-      </c>
-      <c r="C257" t="s">
-        <v>295</v>
-      </c>
-      <c r="D257" t="b">
-        <v>1</v>
-      </c>
-      <c r="E257" t="s">
-        <v>6</v>
-      </c>
-      <c r="F257" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
-        <v>274</v>
-      </c>
-      <c r="B258" t="s">
-        <v>296</v>
-      </c>
-      <c r="C258" t="s">
-        <v>297</v>
-      </c>
-      <c r="D258" t="b">
-        <v>1</v>
-      </c>
-      <c r="E258" t="s">
-        <v>6</v>
-      </c>
-      <c r="F258" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
-        <v>275</v>
-      </c>
-      <c r="B259" t="s">
-        <v>296</v>
-      </c>
-      <c r="C259" t="s">
-        <v>298</v>
-      </c>
-      <c r="D259" t="b">
-        <v>1</v>
-      </c>
-      <c r="E259" t="s">
-        <v>6</v>
-      </c>
-      <c r="F259" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="1">
-        <v>276</v>
-      </c>
-      <c r="B260" t="s">
-        <v>296</v>
-      </c>
-      <c r="C260" t="s">
-        <v>299</v>
-      </c>
-      <c r="D260" t="b">
-        <v>0</v>
-      </c>
-      <c r="E260" t="s">
-        <v>6</v>
-      </c>
-      <c r="F260" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Physiopathologie/Excel/cardiaque.xlsx
+++ b/Physiopathologie/Excel/cardiaque.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moito\Desktop\Sérieux\Projet\Site web\Physiopathologie\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B5D2BA-0D5A-48D3-872A-24CA7D7CB91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9221E244-F7CA-43FC-8977-8AE9C8A8CF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0C1EC4D3-5916-499C-9244-5ABC4AEA4E79}"/>
   </bookViews>
@@ -71,18 +71,12 @@
     <t xml:space="preserve"> Lorsque la fréquence cardiaque devient trop élevée, le débit cardiaque devient limité par la réduction de la diastole.    </t>
   </si>
   <si>
-    <t xml:space="preserve"> Soit une sphère dont l'épaisseur de la paroi est négligeable. Lorsque le rayon de la sphère = 4 cm et la pression transmurale = 8 dyne.cm”, la tension qui s'exerce au niveau de la paroi est de 16 dyne.cm"  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Le réseau résistif du système circulatoire est formé par l'aorte et les gros vaisseaux artériels. </t>
   </si>
   <si>
     <t xml:space="preserve"> Selon la loi de Laplace, la tension qui s'exerce au niveau de la paroi d’une structure creuse est inversement proportionnelle à la pression qui y règne et à son rayon.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Les propriétés de la fibre musculaire cardiaque isolée peuvent être transposées au ventricule, ainsi, la tension exercée par la fibre (g) correspond à la pression intraventriculaire (mm Hg).  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La noradrénaline augmente la contractilité en déplaçant la relation force-vitesse vers le haut et la droite, </t>
   </si>
   <si>
@@ -122,9 +116,6 @@
     <t xml:space="preserve"> La vitesse du courant sanguin augmente lorsque la surface de section des vaisseaux augmente.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lorsque l'écoulement est laminaire, la loi de Poiseuille indique que, le débit est proportionnel à la longueur du tube et inversement proportionnel à la 4° puissance du rayon du tube.  </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La paroi des artères contient une quantité importante de fibres élastiques qui leur confèrent une forte  compliance et une faible élastance.  </t>
   </si>
   <si>
@@ -383,9 +374,6 @@
     <t xml:space="preserve"> La circulation pulmonaire et la circulation systémique sont disposées en parallèle.   </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le débit sanguin est inversement proportionnel à la 4° puissance du rayon du tube selon la loi de Poiseuille-  Hagen.   </t>
-  </si>
-  <si>
     <t xml:space="preserve">23. Concernant la pompe cardiaque: </t>
   </si>
   <si>
@@ -479,9 +467,6 @@
     <t xml:space="preserve"> Le retour veineux augmente lors de l'expiration.     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Lorsque la pression veineuse augmente, la forme des veines devient de plus en plus circulaire et la compliance  veincuse augmente.     </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q25. Concernant les propriétés du muscle cardiaque: </t>
   </si>
   <si>
@@ -515,9 +500,6 @@
     <t xml:space="preserve"> Lorsque le complexe QRS est positif en D2 et égal à 0 en aVL, l'axe du cœur est à -30°   </t>
   </si>
   <si>
-    <t xml:space="preserve"> La transmission de l’activité électrique cardiaque est normalement ralentie au niveau du nœud auriculo-  ventriculaire.   </t>
-  </si>
-  <si>
     <t xml:space="preserve"> La repolarisation auriculaire progresse de l’épicarde vers l'endocarde.    </t>
   </si>
   <si>
@@ -1076,9 +1058,6 @@
     <t>Veines centrale 25fois moins compliant que veines périphériques</t>
   </si>
   <si>
-    <t xml:space="preserve"> La phase 0 du potentiel d'action des cellules sinusales est liée à l'activation transitoire du canal Na, rapide.   </t>
-  </si>
-  <si>
     <t>C'est pour les cardiomyocytes que c'est vrai</t>
   </si>
   <si>
@@ -1245,6 +1224,27 @@
   </si>
   <si>
     <t>L'erreur ici c'est que chronotrope = frequence cardiaque et dromotrope = vitesse de conduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soit une sphère dont l'épaisseur de la paroi est négligeable. Lorsque le rayon de la sphère = 4 cm et la pression transmurale = 8 dyne.cm-2, la tension qui s'exerce au niveau de la paroi est de 16 dyne.cm-1  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Les propriétés de la fibre musculaire cardiaque isolée peuvent être transposées au ventricule, ainsi, la tension exercée par la fibre (g) correspond à la pression intraventriculaire (mmHg).  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque l'écoulement est laminaire, la loi de Poiseuille indique que, le débit est proportionnel à la longueur du tube et inversement proportionnel à la puissance 4eme du rayon du tube.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Le débit sanguin est inversement proportionnel à la 4eme puissance du rayon du tube selon la loi de Poiseuille-  Hagen.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La phase 0 du potentiel d'action des cellules sinusales est liée à l'activation transitoire du canal Na_V rapide.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lorsque la pression veineuse augmente, la forme des veines devient de plus en plus circulaire et la compliance  veineuse augmente.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La transmission de l’activité électrique cardiaque est normalement ralentie au niveau du nœud auriculo- ventriculaire.   </t>
   </si>
 </sst>
 </file>
@@ -1651,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4434D7D-6CBE-4AEC-87F6-B0BB4C058CB9}">
   <dimension ref="A1:F243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A243"/>
+    <sheetView tabSelected="1" topLeftCell="C216" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C216" sqref="C216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -1750,13 +1750,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>396</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1770,7 +1770,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -1790,13 +1790,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F7" t="s">
         <v>6</v>
@@ -1810,13 +1810,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -1830,7 +1830,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>397</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1850,7 +1850,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -1870,13 +1870,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F11" t="s">
         <v>6</v>
@@ -1890,7 +1890,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -1910,7 +1910,7 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -1930,7 +1930,7 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1950,13 +1950,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F15" t="s">
         <v>6</v>
@@ -1970,13 +1970,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F16" t="s">
         <v>6</v>
@@ -1990,13 +1990,13 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F17" t="s">
         <v>6</v>
@@ -2010,7 +2010,7 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" t="b">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
@@ -2070,7 +2070,7 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -2090,7 +2090,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -2110,7 +2110,7 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2130,13 +2130,13 @@
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>398</v>
       </c>
       <c r="D24" t="b">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
@@ -2150,13 +2150,13 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
@@ -2170,13 +2170,13 @@
         <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F26" t="s">
         <v>6</v>
@@ -2190,7 +2190,7 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2210,7 +2210,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2230,7 +2230,7 @@
         <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -2250,7 +2250,7 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
@@ -2270,13 +2270,13 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F31" t="s">
         <v>6</v>
@@ -2290,7 +2290,7 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
@@ -2310,13 +2310,13 @@
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F33" t="s">
         <v>6</v>
@@ -2330,7 +2330,7 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -2350,13 +2350,13 @@
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F35" t="s">
         <v>6</v>
@@ -2370,7 +2370,7 @@
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
@@ -2390,7 +2390,7 @@
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -2410,7 +2410,7 @@
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -2430,13 +2430,13 @@
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D39" t="b">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F39" t="s">
         <v>6</v>
@@ -2450,7 +2450,7 @@
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
@@ -2470,7 +2470,7 @@
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
@@ -2490,13 +2490,13 @@
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F42" t="s">
         <v>6</v>
@@ -2510,7 +2510,7 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
@@ -2530,13 +2530,13 @@
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
@@ -2550,7 +2550,7 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D45" t="b">
         <v>1</v>
@@ -2570,7 +2570,7 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D46" t="b">
         <v>1</v>
@@ -2587,10 +2587,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D47" t="b">
         <v>1</v>
@@ -2607,16 +2607,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F48" t="s">
         <v>6</v>
@@ -2627,16 +2627,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
         <v>50</v>
       </c>
-      <c r="C49" t="s">
-        <v>53</v>
-      </c>
       <c r="D49" t="b">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
@@ -2650,7 +2650,7 @@
         <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D50" t="b">
         <v>1</v>
@@ -2670,13 +2670,13 @@
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F51" t="s">
         <v>6</v>
@@ -2690,13 +2690,13 @@
         <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F52" t="s">
         <v>6</v>
@@ -2710,7 +2710,7 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D54" t="b">
         <v>1</v>
@@ -2750,7 +2750,7 @@
         <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D55" t="b">
         <v>1</v>
@@ -2770,13 +2770,13 @@
         <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F56" t="s">
         <v>6</v>
@@ -2790,7 +2790,7 @@
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D57" t="b">
         <v>1</v>
@@ -2810,7 +2810,7 @@
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D58" t="b">
         <v>1</v>
@@ -2830,7 +2830,7 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D59" t="b">
         <v>1</v>
@@ -2850,13 +2850,13 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D60" t="b">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F60" t="s">
         <v>6</v>
@@ -2870,7 +2870,7 @@
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D61" t="b">
         <v>1</v>
@@ -2890,13 +2890,13 @@
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F62" t="s">
         <v>6</v>
@@ -2910,7 +2910,7 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D63" t="b">
         <v>1</v>
@@ -2930,7 +2930,7 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D64" t="b">
         <v>1</v>
@@ -2950,13 +2950,13 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F65" t="s">
         <v>6</v>
@@ -2970,13 +2970,13 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F66" t="s">
         <v>6</v>
@@ -2990,7 +2990,7 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D67" t="b">
         <v>1</v>
@@ -3007,10 +3007,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D68" t="b">
         <v>1</v>
@@ -3027,10 +3027,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D69" t="b">
         <v>1</v>
@@ -3047,10 +3047,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
@@ -3067,10 +3067,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D71" t="b">
         <v>1</v>
@@ -3087,10 +3087,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D72" t="b">
         <v>1</v>
@@ -3107,10 +3107,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73" t="s">
         <v>73</v>
-      </c>
-      <c r="C73" t="s">
-        <v>76</v>
       </c>
       <c r="D73" t="b">
         <v>1</v>
@@ -3127,16 +3127,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D74" t="b">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F74" t="s">
         <v>6</v>
@@ -3147,16 +3147,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D75" t="b">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F75" t="s">
         <v>6</v>
@@ -3167,16 +3167,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
         <v>77</v>
       </c>
-      <c r="C76" t="s">
-        <v>80</v>
-      </c>
       <c r="D76" t="b">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F76" t="s">
         <v>6</v>
@@ -3187,10 +3187,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D77" t="b">
         <v>0</v>
@@ -3207,16 +3207,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F78" t="s">
         <v>6</v>
@@ -3227,16 +3227,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D79" t="b">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F79" t="s">
         <v>6</v>
@@ -3247,16 +3247,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F80" t="s">
         <v>6</v>
@@ -3267,10 +3267,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D81" t="b">
         <v>1</v>
@@ -3287,16 +3287,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F82" t="s">
         <v>6</v>
@@ -3307,16 +3307,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F83" t="s">
         <v>6</v>
@@ -3327,16 +3327,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C84" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F84" t="s">
         <v>6</v>
@@ -3347,16 +3347,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
         <v>86</v>
       </c>
-      <c r="C85" t="s">
-        <v>89</v>
-      </c>
       <c r="D85" t="b">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F85" t="s">
         <v>6</v>
@@ -3367,10 +3367,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="D86" t="b">
         <v>1</v>
@@ -3387,10 +3387,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D87" t="b">
         <v>1</v>
@@ -3407,16 +3407,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F88" t="s">
         <v>6</v>
@@ -3427,10 +3427,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D89" t="b">
         <v>1</v>
@@ -3447,10 +3447,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D90" t="b">
         <v>1</v>
@@ -3467,16 +3467,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
         <v>92</v>
       </c>
-      <c r="C91" t="s">
-        <v>95</v>
-      </c>
       <c r="D91" t="b">
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F91" t="s">
         <v>6</v>
@@ -3487,10 +3487,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D92" t="b">
         <v>1</v>
@@ -3507,10 +3507,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D93" t="b">
         <v>1</v>
@@ -3527,16 +3527,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C94" t="s">
         <v>96</v>
       </c>
-      <c r="C94" t="s">
-        <v>99</v>
-      </c>
       <c r="D94" t="b">
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F94" t="s">
         <v>6</v>
@@ -3547,10 +3547,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D95" t="b">
         <v>1</v>
@@ -3567,10 +3567,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
@@ -3587,10 +3587,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" t="s">
         <v>100</v>
-      </c>
-      <c r="C97" t="s">
-        <v>103</v>
       </c>
       <c r="D97" t="b">
         <v>1</v>
@@ -3607,16 +3607,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F98" t="s">
         <v>6</v>
@@ -3627,10 +3627,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D99" t="b">
         <v>1</v>
@@ -3647,10 +3647,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D100" t="b">
         <v>1</v>
@@ -3670,13 +3670,13 @@
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F101" t="s">
         <v>6</v>
@@ -3690,13 +3690,13 @@
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D102" t="b">
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F102" t="s">
         <v>6</v>
@@ -3710,13 +3710,13 @@
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D103" t="b">
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F103" t="s">
         <v>6</v>
@@ -3727,16 +3727,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F104" t="s">
         <v>6</v>
@@ -3747,10 +3747,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D105" t="b">
         <v>1</v>
@@ -3767,10 +3767,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" t="s">
         <v>109</v>
-      </c>
-      <c r="C106" t="s">
-        <v>112</v>
       </c>
       <c r="D106" t="b">
         <v>1</v>
@@ -3787,10 +3787,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
@@ -3807,16 +3807,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>115</v>
+        <v>399</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F108" t="s">
         <v>6</v>
@@ -3827,10 +3827,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D109" t="b">
         <v>1</v>
@@ -3847,10 +3847,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D110" t="b">
         <v>1</v>
@@ -3867,16 +3867,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F111" t="s">
         <v>6</v>
@@ -3887,10 +3887,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D112" t="b">
         <v>1</v>
@@ -3907,10 +3907,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D113" t="b">
         <v>1</v>
@@ -3927,10 +3927,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D114" t="b">
         <v>1</v>
@@ -3947,10 +3947,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
@@ -3967,16 +3967,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F116" t="s">
         <v>6</v>
@@ -3987,16 +3987,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C117" t="s">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F117" t="s">
         <v>6</v>
@@ -4007,10 +4007,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D118" t="b">
         <v>1</v>
@@ -4027,10 +4027,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D119" t="b">
         <v>1</v>
@@ -4050,7 +4050,7 @@
         <v>6</v>
       </c>
       <c r="C120" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D120" t="b">
         <v>1</v>
@@ -4070,7 +4070,7 @@
         <v>6</v>
       </c>
       <c r="C121" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D121" t="b">
         <v>1</v>
@@ -4090,7 +4090,7 @@
         <v>6</v>
       </c>
       <c r="C122" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D122" t="b">
         <v>1</v>
@@ -4110,7 +4110,7 @@
         <v>6</v>
       </c>
       <c r="C123" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D123" t="b">
         <v>1</v>
@@ -4130,7 +4130,7 @@
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D124" t="b">
         <v>1</v>
@@ -4150,13 +4150,13 @@
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D125" t="b">
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="F125" t="s">
         <v>6</v>
@@ -4170,13 +4170,13 @@
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F126" t="s">
         <v>6</v>
@@ -4190,7 +4190,7 @@
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D127" t="b">
         <v>1</v>
@@ -4210,13 +4210,13 @@
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="F128" t="s">
         <v>6</v>
@@ -4230,13 +4230,13 @@
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F129" t="s">
         <v>6</v>
@@ -4250,7 +4250,7 @@
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D130" t="b">
         <v>1</v>
@@ -4270,7 +4270,7 @@
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D131" t="b">
         <v>1</v>
@@ -4290,7 +4290,7 @@
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D132" t="b">
         <v>1</v>
@@ -4310,7 +4310,7 @@
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D133" t="b">
         <v>0</v>
@@ -4330,7 +4330,7 @@
         <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D134" t="b">
         <v>1</v>
@@ -4350,13 +4350,13 @@
         <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="F135" t="s">
         <v>6</v>
@@ -4370,7 +4370,7 @@
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D136" t="b">
         <v>1</v>
@@ -4390,13 +4390,13 @@
         <v>6</v>
       </c>
       <c r="C137" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D137" t="b">
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F137" t="s">
         <v>6</v>
@@ -4407,16 +4407,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C138" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D138" t="b">
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F138" t="s">
         <v>6</v>
@@ -4427,16 +4427,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D139" t="b">
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="F139" t="s">
         <v>6</v>
@@ -4447,16 +4447,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>147</v>
+        <v>401</v>
       </c>
       <c r="D140" t="b">
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="F140" t="s">
         <v>6</v>
@@ -4467,10 +4467,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C141" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D141" t="b">
         <v>1</v>
@@ -4487,10 +4487,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="D142" t="b">
         <v>1</v>
@@ -4507,16 +4507,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C143" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D143" t="b">
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="F143" t="s">
         <v>6</v>
@@ -4527,10 +4527,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D144" t="b">
         <v>1</v>
@@ -4547,16 +4547,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D145" t="b">
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="F145" t="s">
         <v>6</v>
@@ -4567,10 +4567,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D146" t="b">
         <v>1</v>
@@ -4587,16 +4587,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C147" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="D147" t="b">
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="F147" t="s">
         <v>6</v>
@@ -4607,16 +4607,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D148" t="b">
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="F148" t="s">
         <v>6</v>
@@ -4627,10 +4627,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
@@ -4647,16 +4647,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C150" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D150" t="b">
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="F150" t="s">
         <v>6</v>
@@ -4667,10 +4667,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>159</v>
+        <v>402</v>
       </c>
       <c r="D151" t="b">
         <v>1</v>
@@ -4687,10 +4687,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C152" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
@@ -4707,10 +4707,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C153" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D153" t="b">
         <v>1</v>
@@ -4727,10 +4727,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D154" t="b">
         <v>1</v>
@@ -4747,16 +4747,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D155" t="b">
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F155" t="s">
         <v>6</v>
@@ -4767,10 +4767,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C156" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D156" t="b">
         <v>1</v>
@@ -4787,10 +4787,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D157" t="b">
         <v>1</v>
@@ -4807,16 +4807,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C158" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D158" t="b">
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="F158" t="s">
         <v>6</v>
@@ -4827,16 +4827,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D159" t="b">
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="F159" t="s">
         <v>6</v>
@@ -4847,10 +4847,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C160" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D160" t="b">
         <v>1</v>
@@ -4867,16 +4867,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F161" t="s">
         <v>6</v>
@@ -4887,16 +4887,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C162" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D162" t="b">
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="F162" t="s">
         <v>6</v>
@@ -4907,16 +4907,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C163" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D163" t="b">
         <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F163" t="s">
         <v>6</v>
@@ -4927,10 +4927,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C164" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D164" t="b">
         <v>1</v>
@@ -4947,16 +4947,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D165" t="b">
         <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="F165" t="s">
         <v>6</v>
@@ -4967,10 +4967,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C166" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D166" t="b">
         <v>1</v>
@@ -4987,10 +4987,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C167" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D167" t="b">
         <v>1</v>
@@ -5007,16 +5007,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C168" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="F168" t="s">
         <v>6</v>
@@ -5027,10 +5027,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C169" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D169" t="b">
         <v>1</v>
@@ -5047,10 +5047,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C170" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D170" t="b">
         <v>1</v>
@@ -5067,10 +5067,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C171" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D171" t="b">
         <v>1</v>
@@ -5087,16 +5087,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C172" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D172" t="b">
         <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F172" t="s">
         <v>6</v>
@@ -5107,16 +5107,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C173" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D173" t="b">
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F173" t="s">
         <v>6</v>
@@ -5127,10 +5127,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C174" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D174" t="b">
         <v>1</v>
@@ -5147,16 +5147,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C175" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D175" t="b">
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F175" t="s">
         <v>6</v>
@@ -5167,10 +5167,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C176" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D176" t="b">
         <v>1</v>
@@ -5187,10 +5187,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C177" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D177" t="b">
         <v>1</v>
@@ -5207,10 +5207,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C178" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D178" t="b">
         <v>1</v>
@@ -5227,16 +5227,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C179" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D179" t="b">
         <v>0</v>
       </c>
       <c r="E179" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F179" t="s">
         <v>6</v>
@@ -5247,10 +5247,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C180" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D180" t="b">
         <v>1</v>
@@ -5267,16 +5267,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C181" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D181" t="b">
         <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="F181" t="s">
         <v>6</v>
@@ -5287,10 +5287,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C182" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D182" t="b">
         <v>1</v>
@@ -5307,10 +5307,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C183" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D183" t="b">
         <v>1</v>
@@ -5327,16 +5327,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C184" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D184" t="b">
         <v>0</v>
       </c>
       <c r="E184" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F184" t="s">
         <v>6</v>
@@ -5347,10 +5347,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C185" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D185" t="b">
         <v>1</v>
@@ -5367,10 +5367,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C186" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D186" t="b">
         <v>1</v>
@@ -5387,10 +5387,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C187" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D187" t="b">
         <v>1</v>
@@ -5407,10 +5407,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C188" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D188" t="b">
         <v>1</v>
@@ -5427,10 +5427,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C189" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D189" t="b">
         <v>1</v>
@@ -5447,10 +5447,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C190" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="D190" t="b">
         <v>1</v>
@@ -5467,16 +5467,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C191" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D191" t="b">
         <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F191" t="s">
         <v>6</v>
@@ -5487,10 +5487,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C192" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D192" t="b">
         <v>1</v>
@@ -5507,16 +5507,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C193" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D193" t="b">
         <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F193" t="s">
         <v>6</v>
@@ -5527,16 +5527,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C194" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="D194" t="b">
         <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F194" t="s">
         <v>6</v>
@@ -5547,10 +5547,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C195" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D195" t="b">
         <v>1</v>
@@ -5567,16 +5567,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C196" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D196" t="b">
         <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F196" t="s">
         <v>6</v>
@@ -5587,10 +5587,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C197" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D197" t="b">
         <v>1</v>
@@ -5607,10 +5607,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C198" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D198" t="b">
         <v>0</v>
@@ -5627,10 +5627,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C199" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D199" t="b">
         <v>0</v>
@@ -5647,16 +5647,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C200" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D200" t="b">
         <v>0</v>
       </c>
       <c r="E200" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="F200" t="s">
         <v>6</v>
@@ -5667,16 +5667,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C201" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D201" t="b">
         <v>0</v>
       </c>
       <c r="E201" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="F201" t="s">
         <v>6</v>
@@ -5687,10 +5687,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C202" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D202" t="b">
         <v>1</v>
@@ -5707,10 +5707,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C203" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D203" t="b">
         <v>1</v>
@@ -5727,10 +5727,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C204" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="D204" t="b">
         <v>0</v>
@@ -5747,10 +5747,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C205" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D205" t="b">
         <v>1</v>
@@ -5767,10 +5767,10 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C206" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D206" t="b">
         <v>1</v>
@@ -5787,10 +5787,10 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C207" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D207" t="b">
         <v>1</v>
@@ -5807,10 +5807,10 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C208" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D208" t="b">
         <v>0</v>
@@ -5827,16 +5827,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C209" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D209" t="b">
         <v>1</v>
       </c>
       <c r="E209" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="F209" t="s">
         <v>6</v>
@@ -5847,10 +5847,10 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C210" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D210" t="b">
         <v>0</v>
@@ -5867,10 +5867,10 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C211" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D211" t="b">
         <v>1</v>
@@ -5887,16 +5887,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C212" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D212" t="b">
         <v>0</v>
       </c>
       <c r="E212" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F212" t="s">
         <v>6</v>
@@ -5907,10 +5907,10 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C213" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D213" t="b">
         <v>1</v>
@@ -5927,10 +5927,10 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C214" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D214" t="b">
         <v>1</v>
@@ -5947,10 +5947,10 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C215" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D215" t="b">
         <v>1</v>
@@ -5967,16 +5967,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C216" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D216" t="b">
         <v>0</v>
       </c>
       <c r="E216" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F216" t="s">
         <v>6</v>
@@ -5987,16 +5987,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C217" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D217" t="b">
         <v>0</v>
       </c>
       <c r="E217" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="F217" t="s">
         <v>6</v>
@@ -6007,10 +6007,10 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C218" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D218" t="b">
         <v>1</v>
@@ -6027,10 +6027,10 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C219" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D219" t="b">
         <v>1</v>
@@ -6047,10 +6047,10 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C220" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D220" t="b">
         <v>1</v>
@@ -6067,10 +6067,10 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C221" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D221" t="b">
         <v>1</v>
@@ -6087,16 +6087,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C222" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D222" t="b">
         <v>0</v>
       </c>
       <c r="E222" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F222" t="s">
         <v>6</v>
@@ -6107,16 +6107,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C223" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D223" t="b">
         <v>1</v>
       </c>
       <c r="E223" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F223" t="s">
         <v>6</v>
@@ -6127,16 +6127,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C224" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D224" t="b">
         <v>0</v>
       </c>
       <c r="E224" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F224" t="s">
         <v>6</v>
@@ -6147,10 +6147,10 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C225" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D225" t="b">
         <v>1</v>
@@ -6167,16 +6167,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C226" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D226" t="b">
         <v>1</v>
       </c>
       <c r="E226" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F226" t="s">
         <v>6</v>
@@ -6187,10 +6187,10 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C227" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D227" t="b">
         <v>1</v>
@@ -6207,16 +6207,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C228" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D228" t="b">
         <v>1</v>
       </c>
       <c r="E228" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="F228" t="s">
         <v>6</v>
@@ -6227,10 +6227,10 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C229" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D229" t="b">
         <v>1</v>
@@ -6247,10 +6247,10 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C230" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D230" t="b">
         <v>1</v>
@@ -6267,10 +6267,10 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C231" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D231" t="b">
         <v>0</v>
@@ -6287,10 +6287,10 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C232" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D232" t="b">
         <v>1</v>
@@ -6307,16 +6307,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C233" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D233" t="b">
         <v>0</v>
       </c>
       <c r="E233" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F233" t="s">
         <v>6</v>
@@ -6327,16 +6327,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C234" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D234" t="b">
         <v>0</v>
       </c>
       <c r="E234" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F234" t="s">
         <v>6</v>
@@ -6347,10 +6347,10 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C235" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D235" t="b">
         <v>1</v>
@@ -6367,10 +6367,10 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C236" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D236" t="b">
         <v>1</v>
@@ -6387,16 +6387,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C237" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D237" t="b">
         <v>0</v>
       </c>
       <c r="E237" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F237" t="s">
         <v>6</v>
@@ -6407,16 +6407,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C238" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D238" t="b">
         <v>1</v>
       </c>
       <c r="E238" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F238" t="s">
         <v>6</v>
@@ -6427,16 +6427,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C239" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D239" t="b">
         <v>0</v>
       </c>
       <c r="E239" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="F239" t="s">
         <v>6</v>
@@ -6447,16 +6447,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C240" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D240" t="b">
         <v>0</v>
       </c>
       <c r="E240" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="F240" t="s">
         <v>6</v>
@@ -6467,10 +6467,10 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C241" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="D241" t="b">
         <v>1</v>
@@ -6487,10 +6487,10 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C242" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D242" t="b">
         <v>1</v>
@@ -6507,10 +6507,10 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C243" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="D243" t="b">
         <v>0</v>
